--- a/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.26694365750014</v>
+        <v>25.26694365750024</v>
       </c>
       <c r="C2">
-        <v>21.15247832416861</v>
+        <v>21.15247832416863</v>
       </c>
       <c r="D2">
-        <v>8.188657937640617</v>
+        <v>8.188657937640656</v>
       </c>
       <c r="E2">
-        <v>10.18794263618903</v>
+        <v>10.187942636189</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.03266274976774</v>
+        <v>36.03266274976787</v>
       </c>
       <c r="H2">
-        <v>28.98483195531595</v>
+        <v>28.98483195531603</v>
       </c>
       <c r="I2">
-        <v>5.006897247482043</v>
+        <v>5.00689724748195</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.08829229731214</v>
+        <v>15.08829229731222</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.41104709488722</v>
+        <v>23.41104709488734</v>
       </c>
       <c r="C3">
-        <v>19.57647900421737</v>
+        <v>19.57647900421746</v>
       </c>
       <c r="D3">
-        <v>7.691712043413049</v>
+        <v>7.691712043413013</v>
       </c>
       <c r="E3">
-        <v>9.606285209639735</v>
+        <v>9.606285209639779</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.10204985056472</v>
+        <v>34.10204985056481</v>
       </c>
       <c r="H3">
-        <v>27.69406441976128</v>
+        <v>27.69406441976132</v>
       </c>
       <c r="I3">
-        <v>4.904892581418744</v>
+        <v>4.904892581418806</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.21970897788123</v>
+        <v>22.21970897788114</v>
       </c>
       <c r="C4">
-        <v>18.56717701666206</v>
+        <v>18.56717701666186</v>
       </c>
       <c r="D4">
-        <v>7.380930355197321</v>
+        <v>7.380930355197278</v>
       </c>
       <c r="E4">
-        <v>9.245178091642952</v>
+        <v>9.245178091642938</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.91294495013442</v>
+        <v>32.91294495013445</v>
       </c>
       <c r="H4">
-        <v>26.91067841899113</v>
+        <v>26.91067841899117</v>
       </c>
       <c r="I4">
-        <v>4.846106265727313</v>
+        <v>4.846106265727308</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.24037943652641</v>
+        <v>13.24037943652633</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.72082760243914</v>
+        <v>21.72082760243903</v>
       </c>
       <c r="C5">
-        <v>18.14505451078303</v>
+        <v>18.14505451078293</v>
       </c>
       <c r="D5">
-        <v>7.25290096020866</v>
+        <v>7.25290096020867</v>
       </c>
       <c r="E5">
-        <v>9.097077362795805</v>
+        <v>9.097077362795844</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.42755944347503</v>
+        <v>32.4275594434751</v>
       </c>
       <c r="H5">
-        <v>26.59374095815096</v>
+        <v>26.59374095815102</v>
       </c>
       <c r="I5">
-        <v>4.823074777805894</v>
+        <v>4.823074777805899</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.63716918032464</v>
+        <v>21.63716918032473</v>
       </c>
       <c r="C6">
-        <v>18.07429803839462</v>
+        <v>18.07429803839459</v>
       </c>
       <c r="D6">
-        <v>7.231560114187864</v>
+        <v>7.231560114187877</v>
       </c>
       <c r="E6">
-        <v>9.072430548105189</v>
+        <v>9.072430548105242</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.34691831982023</v>
+        <v>32.34691831982027</v>
       </c>
       <c r="H6">
-        <v>26.54125385018678</v>
+        <v>26.54125385018677</v>
       </c>
       <c r="I6">
-        <v>4.81930507533595</v>
+        <v>4.81930507533601</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.94515113599791</v>
+        <v>12.94515113599793</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.21303561512715</v>
+        <v>22.21303561512726</v>
       </c>
       <c r="C7">
-        <v>18.56152839052691</v>
+        <v>18.56152839052697</v>
       </c>
       <c r="D7">
-        <v>7.379209227427704</v>
+        <v>7.379209227427706</v>
       </c>
       <c r="E7">
-        <v>9.243184485546818</v>
+        <v>9.243184485546802</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.90640192023273</v>
+        <v>32.90640192023261</v>
       </c>
       <c r="H7">
-        <v>26.90639473334334</v>
+        <v>26.9063947333432</v>
       </c>
       <c r="I7">
-        <v>4.845791965549246</v>
+        <v>4.845791965549187</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.2363433785634</v>
+        <v>13.23634337856345</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.63754536891796</v>
+        <v>24.63754536891799</v>
       </c>
       <c r="C8">
         <v>20.61748753006593</v>
       </c>
       <c r="D8">
-        <v>8.018495481459482</v>
+        <v>8.018495481459521</v>
       </c>
       <c r="E8">
-        <v>9.988226368054178</v>
+        <v>9.988226368054214</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.36777898481571</v>
+        <v>35.36777898481574</v>
       </c>
       <c r="H8">
-        <v>28.53785035187243</v>
+        <v>28.53785035187244</v>
       </c>
       <c r="I8">
-        <v>4.970901151417901</v>
+        <v>4.97090115141794</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.70577659075222</v>
+        <v>14.70577659075218</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.00029956404798</v>
+        <v>29.00029956404791</v>
       </c>
       <c r="C9">
-        <v>24.33738813821833</v>
+        <v>24.33738813821823</v>
       </c>
       <c r="D9">
-        <v>9.227750287771906</v>
+        <v>9.227750287771956</v>
       </c>
       <c r="E9">
         <v>11.41818801783239</v>
@@ -693,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.16858836937728</v>
+        <v>40.1685883693771</v>
       </c>
       <c r="H9">
-        <v>31.81472666888835</v>
+        <v>31.81472666888823</v>
       </c>
       <c r="I9">
-        <v>5.248950237122698</v>
+        <v>5.248950237122672</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.3669134473242</v>
+        <v>17.36691344732418</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.9986410586328</v>
+        <v>31.99864105863281</v>
       </c>
       <c r="C10">
         <v>26.91080413480178</v>
@@ -725,25 +725,25 @@
         <v>10.18949642708567</v>
       </c>
       <c r="E10">
-        <v>12.55015378557068</v>
+        <v>12.55015378557072</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.69899812860946</v>
+        <v>43.69899812860956</v>
       </c>
       <c r="H10">
-        <v>34.28559527769989</v>
+        <v>34.28559527769995</v>
       </c>
       <c r="I10">
-        <v>5.499641774355153</v>
+        <v>5.499641774355183</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.20992724755995</v>
+        <v>19.20992724756</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.3265616943563</v>
+        <v>33.32656169435614</v>
       </c>
       <c r="C11">
-        <v>28.05539231395673</v>
+        <v>28.0553923139566</v>
       </c>
       <c r="D11">
-        <v>10.62479309500464</v>
+        <v>10.62479309500451</v>
       </c>
       <c r="E11">
-        <v>13.09265731715388</v>
+        <v>13.09265731715379</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.31463552463653</v>
+        <v>45.31463552463634</v>
       </c>
       <c r="H11">
-        <v>35.43013264302735</v>
+        <v>35.43013264302722</v>
       </c>
       <c r="I11">
-        <v>5.697911531139082</v>
+        <v>5.697911531139068</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.03019465648739</v>
+        <v>20.03019465648729</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.82514537153563</v>
+        <v>33.82514537153561</v>
       </c>
       <c r="C12">
-        <v>28.48595888398803</v>
+        <v>28.48595888398802</v>
       </c>
       <c r="D12">
-        <v>10.78854532576433</v>
+        <v>10.78854532576442</v>
       </c>
       <c r="E12">
-        <v>13.29690607292987</v>
+        <v>13.29690607292991</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.95805196696787</v>
+        <v>45.95805196696797</v>
       </c>
       <c r="H12">
-        <v>35.86733134552964</v>
+        <v>35.86733134552978</v>
       </c>
       <c r="I12">
-        <v>5.77281811938707</v>
+        <v>5.772818119387067</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.71793985722331</v>
+        <v>33.71793985722344</v>
       </c>
       <c r="C13">
-        <v>28.39333993900535</v>
+        <v>28.39333993900555</v>
       </c>
       <c r="D13">
-        <v>10.75332082310707</v>
+        <v>10.75332082310718</v>
       </c>
       <c r="E13">
-        <v>13.25296247438688</v>
+        <v>13.25296247438687</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.81247975942091</v>
+        <v>45.81247975942116</v>
       </c>
       <c r="H13">
-        <v>35.77298807204125</v>
+        <v>35.77298807204136</v>
       </c>
       <c r="I13">
-        <v>5.756690525684367</v>
+        <v>5.756690525684307</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.2724468045876</v>
+        <v>20.27244680458763</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.36766017811399</v>
+        <v>33.36766017811406</v>
       </c>
       <c r="C14">
         <v>28.09086695091997</v>
       </c>
       <c r="D14">
-        <v>10.63828477604547</v>
+        <v>10.63828477604537</v>
       </c>
       <c r="E14">
-        <v>13.10948200396642</v>
+        <v>13.10948200396641</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.36511722664685</v>
+        <v>45.36511722664693</v>
       </c>
       <c r="H14">
-        <v>35.46601957561236</v>
+        <v>35.46601957561242</v>
       </c>
       <c r="I14">
         <v>5.704076612054395</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.05562273705594</v>
+        <v>20.05562273705593</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.15257778183065</v>
+        <v>33.15257778183056</v>
       </c>
       <c r="C15">
-        <v>27.90524993785315</v>
+        <v>27.90524993785304</v>
       </c>
       <c r="D15">
-        <v>10.56769113148826</v>
+        <v>10.56769113148821</v>
       </c>
       <c r="E15">
-        <v>13.02145574163258</v>
+        <v>13.02145574163264</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.10124256763898</v>
+        <v>45.10124256763883</v>
       </c>
       <c r="H15">
-        <v>35.27851516593287</v>
+        <v>35.27851516593275</v>
       </c>
       <c r="I15">
-        <v>5.671831620495135</v>
+        <v>5.671831620495181</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.92257664652531</v>
+        <v>19.92257664652533</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.91120692488564</v>
+        <v>31.9112069248856</v>
       </c>
       <c r="C16">
-        <v>26.8355495696639</v>
+        <v>26.83554956966383</v>
       </c>
       <c r="D16">
-        <v>10.16087813233745</v>
+        <v>10.16087813233739</v>
       </c>
       <c r="E16">
-        <v>12.51450903136258</v>
+        <v>12.5145090313625</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.5936936960939</v>
+        <v>43.59369369609398</v>
       </c>
       <c r="H16">
-        <v>34.21127553672116</v>
+        <v>34.21127553672125</v>
       </c>
       <c r="I16">
-        <v>5.486650877821685</v>
+        <v>5.486650877821638</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.15600776381427</v>
+        <v>19.1560077638142</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.14102888514305</v>
+        <v>31.14102888514297</v>
       </c>
       <c r="C17">
-        <v>26.17322061925889</v>
+        <v>26.17322061925887</v>
       </c>
       <c r="D17">
-        <v>9.909018896881626</v>
+        <v>9.909018896881513</v>
       </c>
       <c r="E17">
-        <v>12.20092356150416</v>
+        <v>12.20092356150411</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.67201461611667</v>
+        <v>42.67201461611648</v>
       </c>
       <c r="H17">
-        <v>33.56232938726912</v>
+        <v>33.56232938726898</v>
       </c>
       <c r="I17">
-        <v>5.408785420351602</v>
+        <v>5.408785420351666</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.68151504802808</v>
+        <v>18.68151504802798</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.69458667103579</v>
+        <v>30.69458667103566</v>
       </c>
       <c r="C18">
-        <v>25.78975030075042</v>
+        <v>25.78975030075048</v>
       </c>
       <c r="D18">
-        <v>9.763215309192978</v>
+        <v>9.763215309192908</v>
       </c>
       <c r="E18">
-        <v>12.01947491880208</v>
+        <v>12.01947491880196</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.14271015384312</v>
+        <v>42.14271015384303</v>
       </c>
       <c r="H18">
-        <v>33.19094064797915</v>
+        <v>33.19094064797913</v>
       </c>
       <c r="I18">
-        <v>5.374237021594872</v>
+        <v>5.374237021594957</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.40684817627122</v>
+        <v>18.40684817627112</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.54281050305598</v>
+        <v>30.54281050305606</v>
       </c>
       <c r="C19">
-        <v>25.65945755139273</v>
+        <v>25.65945755139277</v>
       </c>
       <c r="D19">
-        <v>9.713678475385871</v>
+        <v>9.713678475385917</v>
       </c>
       <c r="E19">
         <v>11.95784207137918</v>
@@ -1073,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.9636094130276</v>
+        <v>41.9636094130277</v>
       </c>
       <c r="H19">
-        <v>33.0654943818445</v>
+        <v>33.06549438184459</v>
       </c>
       <c r="I19">
-        <v>5.362635829429845</v>
+        <v>5.362635829429861</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.31353248015656</v>
+        <v>18.31353248015659</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.22336732424649</v>
+        <v>31.22336732424648</v>
       </c>
       <c r="C20">
-        <v>26.24398124368874</v>
+        <v>26.24398124368871</v>
       </c>
       <c r="D20">
-        <v>9.935925015955286</v>
+        <v>9.935925015955293</v>
       </c>
       <c r="E20">
-        <v>12.23441452168392</v>
+        <v>12.2344145216839</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>33.63121227800072</v>
       </c>
       <c r="I20">
-        <v>5.415226038444525</v>
+        <v>5.415226038444499</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.73220262859924</v>
+        <v>18.73220262859926</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.47065352355418</v>
+        <v>33.47065352355419</v>
       </c>
       <c r="C21">
-        <v>28.17978034926034</v>
+        <v>28.17978034926045</v>
       </c>
       <c r="D21">
-        <v>10.67210023310109</v>
+        <v>10.67210023310104</v>
       </c>
       <c r="E21">
-        <v>13.15165405630043</v>
+        <v>13.15165405630045</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.4917487805161</v>
+        <v>45.49174878051624</v>
       </c>
       <c r="H21">
-        <v>35.55607285400451</v>
+        <v>35.5560728540046</v>
       </c>
       <c r="I21">
-        <v>5.719533901669769</v>
+        <v>5.719533901669796</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.11935688002696</v>
+        <v>20.11935688002697</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.91505998004319</v>
+        <v>34.91505998004337</v>
       </c>
       <c r="C22">
-        <v>29.42879895459496</v>
+        <v>29.42879895459512</v>
       </c>
       <c r="D22">
-        <v>11.14710813553218</v>
+        <v>11.14710813553212</v>
       </c>
       <c r="E22">
-        <v>13.74447874241467</v>
+        <v>13.74447874241466</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.44571978677685</v>
+        <v>47.44571978677716</v>
       </c>
       <c r="H22">
-        <v>36.83675483126554</v>
+        <v>36.83675483126569</v>
       </c>
       <c r="I22">
-        <v>5.937434348898696</v>
+        <v>5.937434348898734</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.01487137695314</v>
+        <v>21.01487137695317</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.14602564644643</v>
+        <v>34.14602564644624</v>
       </c>
       <c r="C23">
-        <v>28.76330691753872</v>
+        <v>28.76330691753857</v>
       </c>
       <c r="D23">
         <v>10.89402429093949</v>
       </c>
       <c r="E23">
-        <v>13.42852061259464</v>
+        <v>13.42852061259452</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.3945848200167</v>
+        <v>46.39458482001635</v>
       </c>
       <c r="H23">
-        <v>36.15080480581425</v>
+        <v>36.15080480581407</v>
       </c>
       <c r="I23">
-        <v>5.821159177921996</v>
+        <v>5.821159177921905</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.53768359507026</v>
+        <v>20.53768359507013</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.18615357169805</v>
+        <v>31.18615357169828</v>
       </c>
       <c r="C24">
-        <v>26.21199880401181</v>
+        <v>26.21199880401193</v>
       </c>
       <c r="D24">
-        <v>9.923763917200782</v>
+        <v>9.923763917200773</v>
       </c>
       <c r="E24">
-        <v>12.21927691546525</v>
+        <v>12.21927691546526</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.72571934986127</v>
+        <v>42.72571934986146</v>
       </c>
       <c r="H24">
-        <v>33.60006509029329</v>
+        <v>33.60006509029343</v>
       </c>
       <c r="I24">
-        <v>5.412312488633622</v>
+        <v>5.412312488633651</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.70929265909724</v>
+        <v>18.70929265909727</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.85901115474378</v>
+        <v>27.85901115474381</v>
       </c>
       <c r="C25">
-        <v>23.36158839958786</v>
+        <v>23.36158839958785</v>
       </c>
       <c r="D25">
-        <v>8.905122776453958</v>
+        <v>8.905122776453961</v>
       </c>
       <c r="E25">
-        <v>11.03439397198744</v>
+        <v>11.03439397198741</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.87141529611377</v>
+        <v>38.87141529611364</v>
       </c>
       <c r="H25">
-        <v>30.91878722781792</v>
+        <v>30.91878722781782</v>
       </c>
       <c r="I25">
-        <v>5.169885746690907</v>
+        <v>5.169885746690888</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.66851572668145</v>
+        <v>16.66851572668143</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.26694365750024</v>
+        <v>25.26694365750014</v>
       </c>
       <c r="C2">
-        <v>21.15247832416863</v>
+        <v>21.15247832416861</v>
       </c>
       <c r="D2">
-        <v>8.188657937640656</v>
+        <v>8.188657937640617</v>
       </c>
       <c r="E2">
-        <v>10.187942636189</v>
+        <v>10.18794263618903</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.03266274976787</v>
+        <v>36.03266274976774</v>
       </c>
       <c r="H2">
-        <v>28.98483195531603</v>
+        <v>28.98483195531595</v>
       </c>
       <c r="I2">
-        <v>5.00689724748195</v>
+        <v>5.006897247482043</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.08829229731222</v>
+        <v>15.08829229731214</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.41104709488734</v>
+        <v>23.41104709488722</v>
       </c>
       <c r="C3">
-        <v>19.57647900421746</v>
+        <v>19.57647900421737</v>
       </c>
       <c r="D3">
-        <v>7.691712043413013</v>
+        <v>7.691712043413049</v>
       </c>
       <c r="E3">
-        <v>9.606285209639779</v>
+        <v>9.606285209639735</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.10204985056481</v>
+        <v>34.10204985056472</v>
       </c>
       <c r="H3">
-        <v>27.69406441976132</v>
+        <v>27.69406441976128</v>
       </c>
       <c r="I3">
-        <v>4.904892581418806</v>
+        <v>4.904892581418744</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.21970897788114</v>
+        <v>22.21970897788123</v>
       </c>
       <c r="C4">
-        <v>18.56717701666186</v>
+        <v>18.56717701666206</v>
       </c>
       <c r="D4">
-        <v>7.380930355197278</v>
+        <v>7.380930355197321</v>
       </c>
       <c r="E4">
-        <v>9.245178091642938</v>
+        <v>9.245178091642952</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.91294495013445</v>
+        <v>32.91294495013442</v>
       </c>
       <c r="H4">
-        <v>26.91067841899117</v>
+        <v>26.91067841899113</v>
       </c>
       <c r="I4">
-        <v>4.846106265727308</v>
+        <v>4.846106265727313</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.24037943652633</v>
+        <v>13.24037943652641</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.72082760243903</v>
+        <v>21.72082760243914</v>
       </c>
       <c r="C5">
-        <v>18.14505451078293</v>
+        <v>18.14505451078303</v>
       </c>
       <c r="D5">
-        <v>7.25290096020867</v>
+        <v>7.25290096020866</v>
       </c>
       <c r="E5">
-        <v>9.097077362795844</v>
+        <v>9.097077362795805</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.4275594434751</v>
+        <v>32.42755944347503</v>
       </c>
       <c r="H5">
-        <v>26.59374095815102</v>
+        <v>26.59374095815096</v>
       </c>
       <c r="I5">
-        <v>4.823074777805899</v>
+        <v>4.823074777805894</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.63716918032473</v>
+        <v>21.63716918032464</v>
       </c>
       <c r="C6">
-        <v>18.07429803839459</v>
+        <v>18.07429803839462</v>
       </c>
       <c r="D6">
-        <v>7.231560114187877</v>
+        <v>7.231560114187864</v>
       </c>
       <c r="E6">
-        <v>9.072430548105242</v>
+        <v>9.072430548105189</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.34691831982027</v>
+        <v>32.34691831982023</v>
       </c>
       <c r="H6">
-        <v>26.54125385018677</v>
+        <v>26.54125385018678</v>
       </c>
       <c r="I6">
-        <v>4.81930507533601</v>
+        <v>4.81930507533595</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.94515113599793</v>
+        <v>12.94515113599791</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.21303561512726</v>
+        <v>22.21303561512715</v>
       </c>
       <c r="C7">
-        <v>18.56152839052697</v>
+        <v>18.56152839052691</v>
       </c>
       <c r="D7">
-        <v>7.379209227427706</v>
+        <v>7.379209227427704</v>
       </c>
       <c r="E7">
-        <v>9.243184485546802</v>
+        <v>9.243184485546818</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.90640192023261</v>
+        <v>32.90640192023273</v>
       </c>
       <c r="H7">
-        <v>26.9063947333432</v>
+        <v>26.90639473334334</v>
       </c>
       <c r="I7">
-        <v>4.845791965549187</v>
+        <v>4.845791965549246</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.23634337856345</v>
+        <v>13.2363433785634</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.63754536891799</v>
+        <v>24.63754536891796</v>
       </c>
       <c r="C8">
         <v>20.61748753006593</v>
       </c>
       <c r="D8">
-        <v>8.018495481459521</v>
+        <v>8.018495481459482</v>
       </c>
       <c r="E8">
-        <v>9.988226368054214</v>
+        <v>9.988226368054178</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.36777898481574</v>
+        <v>35.36777898481571</v>
       </c>
       <c r="H8">
-        <v>28.53785035187244</v>
+        <v>28.53785035187243</v>
       </c>
       <c r="I8">
-        <v>4.97090115141794</v>
+        <v>4.970901151417901</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.70577659075218</v>
+        <v>14.70577659075222</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.00029956404791</v>
+        <v>29.00029956404798</v>
       </c>
       <c r="C9">
-        <v>24.33738813821823</v>
+        <v>24.33738813821833</v>
       </c>
       <c r="D9">
-        <v>9.227750287771956</v>
+        <v>9.227750287771906</v>
       </c>
       <c r="E9">
         <v>11.41818801783239</v>
@@ -693,19 +693,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.1685883693771</v>
+        <v>40.16858836937728</v>
       </c>
       <c r="H9">
-        <v>31.81472666888823</v>
+        <v>31.81472666888835</v>
       </c>
       <c r="I9">
-        <v>5.248950237122672</v>
+        <v>5.248950237122698</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.36691344732418</v>
+        <v>17.3669134473242</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.99864105863281</v>
+        <v>31.9986410586328</v>
       </c>
       <c r="C10">
         <v>26.91080413480178</v>
@@ -725,25 +725,25 @@
         <v>10.18949642708567</v>
       </c>
       <c r="E10">
-        <v>12.55015378557072</v>
+        <v>12.55015378557068</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.69899812860956</v>
+        <v>43.69899812860946</v>
       </c>
       <c r="H10">
-        <v>34.28559527769995</v>
+        <v>34.28559527769989</v>
       </c>
       <c r="I10">
-        <v>5.499641774355183</v>
+        <v>5.499641774355153</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.20992724756</v>
+        <v>19.20992724755995</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.32656169435614</v>
+        <v>33.3265616943563</v>
       </c>
       <c r="C11">
-        <v>28.0553923139566</v>
+        <v>28.05539231395673</v>
       </c>
       <c r="D11">
-        <v>10.62479309500451</v>
+        <v>10.62479309500464</v>
       </c>
       <c r="E11">
-        <v>13.09265731715379</v>
+        <v>13.09265731715388</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.31463552463634</v>
+        <v>45.31463552463653</v>
       </c>
       <c r="H11">
-        <v>35.43013264302722</v>
+        <v>35.43013264302735</v>
       </c>
       <c r="I11">
-        <v>5.697911531139068</v>
+        <v>5.697911531139082</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>20.03019465648729</v>
+        <v>20.03019465648739</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.82514537153561</v>
+        <v>33.82514537153563</v>
       </c>
       <c r="C12">
-        <v>28.48595888398802</v>
+        <v>28.48595888398803</v>
       </c>
       <c r="D12">
-        <v>10.78854532576442</v>
+        <v>10.78854532576433</v>
       </c>
       <c r="E12">
-        <v>13.29690607292991</v>
+        <v>13.29690607292987</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.95805196696797</v>
+        <v>45.95805196696787</v>
       </c>
       <c r="H12">
-        <v>35.86733134552978</v>
+        <v>35.86733134552964</v>
       </c>
       <c r="I12">
-        <v>5.772818119387067</v>
+        <v>5.77281811938707</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.71793985722344</v>
+        <v>33.71793985722331</v>
       </c>
       <c r="C13">
-        <v>28.39333993900555</v>
+        <v>28.39333993900535</v>
       </c>
       <c r="D13">
-        <v>10.75332082310718</v>
+        <v>10.75332082310707</v>
       </c>
       <c r="E13">
-        <v>13.25296247438687</v>
+        <v>13.25296247438688</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.81247975942116</v>
+        <v>45.81247975942091</v>
       </c>
       <c r="H13">
-        <v>35.77298807204136</v>
+        <v>35.77298807204125</v>
       </c>
       <c r="I13">
-        <v>5.756690525684307</v>
+        <v>5.756690525684367</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.27244680458763</v>
+        <v>20.2724468045876</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.36766017811406</v>
+        <v>33.36766017811399</v>
       </c>
       <c r="C14">
         <v>28.09086695091997</v>
       </c>
       <c r="D14">
-        <v>10.63828477604537</v>
+        <v>10.63828477604547</v>
       </c>
       <c r="E14">
-        <v>13.10948200396641</v>
+        <v>13.10948200396642</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.36511722664693</v>
+        <v>45.36511722664685</v>
       </c>
       <c r="H14">
-        <v>35.46601957561242</v>
+        <v>35.46601957561236</v>
       </c>
       <c r="I14">
         <v>5.704076612054395</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.05562273705593</v>
+        <v>20.05562273705594</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.15257778183056</v>
+        <v>33.15257778183065</v>
       </c>
       <c r="C15">
-        <v>27.90524993785304</v>
+        <v>27.90524993785315</v>
       </c>
       <c r="D15">
-        <v>10.56769113148821</v>
+        <v>10.56769113148826</v>
       </c>
       <c r="E15">
-        <v>13.02145574163264</v>
+        <v>13.02145574163258</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.10124256763883</v>
+        <v>45.10124256763898</v>
       </c>
       <c r="H15">
-        <v>35.27851516593275</v>
+        <v>35.27851516593287</v>
       </c>
       <c r="I15">
-        <v>5.671831620495181</v>
+        <v>5.671831620495135</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.92257664652533</v>
+        <v>19.92257664652531</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.9112069248856</v>
+        <v>31.91120692488564</v>
       </c>
       <c r="C16">
-        <v>26.83554956966383</v>
+        <v>26.8355495696639</v>
       </c>
       <c r="D16">
-        <v>10.16087813233739</v>
+        <v>10.16087813233745</v>
       </c>
       <c r="E16">
-        <v>12.5145090313625</v>
+        <v>12.51450903136258</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.59369369609398</v>
+        <v>43.5936936960939</v>
       </c>
       <c r="H16">
-        <v>34.21127553672125</v>
+        <v>34.21127553672116</v>
       </c>
       <c r="I16">
-        <v>5.486650877821638</v>
+        <v>5.486650877821685</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.1560077638142</v>
+        <v>19.15600776381427</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.14102888514297</v>
+        <v>31.14102888514305</v>
       </c>
       <c r="C17">
-        <v>26.17322061925887</v>
+        <v>26.17322061925889</v>
       </c>
       <c r="D17">
-        <v>9.909018896881513</v>
+        <v>9.909018896881626</v>
       </c>
       <c r="E17">
-        <v>12.20092356150411</v>
+        <v>12.20092356150416</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.67201461611648</v>
+        <v>42.67201461611667</v>
       </c>
       <c r="H17">
-        <v>33.56232938726898</v>
+        <v>33.56232938726912</v>
       </c>
       <c r="I17">
-        <v>5.408785420351666</v>
+        <v>5.408785420351602</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.68151504802798</v>
+        <v>18.68151504802808</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.69458667103566</v>
+        <v>30.69458667103579</v>
       </c>
       <c r="C18">
-        <v>25.78975030075048</v>
+        <v>25.78975030075042</v>
       </c>
       <c r="D18">
-        <v>9.763215309192908</v>
+        <v>9.763215309192978</v>
       </c>
       <c r="E18">
-        <v>12.01947491880196</v>
+        <v>12.01947491880208</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.14271015384303</v>
+        <v>42.14271015384312</v>
       </c>
       <c r="H18">
-        <v>33.19094064797913</v>
+        <v>33.19094064797915</v>
       </c>
       <c r="I18">
-        <v>5.374237021594957</v>
+        <v>5.374237021594872</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.40684817627112</v>
+        <v>18.40684817627122</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.54281050305606</v>
+        <v>30.54281050305598</v>
       </c>
       <c r="C19">
-        <v>25.65945755139277</v>
+        <v>25.65945755139273</v>
       </c>
       <c r="D19">
-        <v>9.713678475385917</v>
+        <v>9.713678475385871</v>
       </c>
       <c r="E19">
         <v>11.95784207137918</v>
@@ -1073,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.9636094130277</v>
+        <v>41.9636094130276</v>
       </c>
       <c r="H19">
-        <v>33.06549438184459</v>
+        <v>33.0654943818445</v>
       </c>
       <c r="I19">
-        <v>5.362635829429861</v>
+        <v>5.362635829429845</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.31353248015659</v>
+        <v>18.31353248015656</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.22336732424648</v>
+        <v>31.22336732424649</v>
       </c>
       <c r="C20">
-        <v>26.24398124368871</v>
+        <v>26.24398124368874</v>
       </c>
       <c r="D20">
-        <v>9.935925015955293</v>
+        <v>9.935925015955286</v>
       </c>
       <c r="E20">
-        <v>12.2344145216839</v>
+        <v>12.23441452168392</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>33.63121227800072</v>
       </c>
       <c r="I20">
-        <v>5.415226038444499</v>
+        <v>5.415226038444525</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.73220262859926</v>
+        <v>18.73220262859924</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.47065352355419</v>
+        <v>33.47065352355418</v>
       </c>
       <c r="C21">
-        <v>28.17978034926045</v>
+        <v>28.17978034926034</v>
       </c>
       <c r="D21">
-        <v>10.67210023310104</v>
+        <v>10.67210023310109</v>
       </c>
       <c r="E21">
-        <v>13.15165405630045</v>
+        <v>13.15165405630043</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.49174878051624</v>
+        <v>45.4917487805161</v>
       </c>
       <c r="H21">
-        <v>35.5560728540046</v>
+        <v>35.55607285400451</v>
       </c>
       <c r="I21">
-        <v>5.719533901669796</v>
+        <v>5.719533901669769</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>20.11935688002697</v>
+        <v>20.11935688002696</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.91505998004337</v>
+        <v>34.91505998004319</v>
       </c>
       <c r="C22">
-        <v>29.42879895459512</v>
+        <v>29.42879895459496</v>
       </c>
       <c r="D22">
-        <v>11.14710813553212</v>
+        <v>11.14710813553218</v>
       </c>
       <c r="E22">
-        <v>13.74447874241466</v>
+        <v>13.74447874241467</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.44571978677716</v>
+        <v>47.44571978677685</v>
       </c>
       <c r="H22">
-        <v>36.83675483126569</v>
+        <v>36.83675483126554</v>
       </c>
       <c r="I22">
-        <v>5.937434348898734</v>
+        <v>5.937434348898696</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>21.01487137695317</v>
+        <v>21.01487137695314</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.14602564644624</v>
+        <v>34.14602564644643</v>
       </c>
       <c r="C23">
-        <v>28.76330691753857</v>
+        <v>28.76330691753872</v>
       </c>
       <c r="D23">
         <v>10.89402429093949</v>
       </c>
       <c r="E23">
-        <v>13.42852061259452</v>
+        <v>13.42852061259464</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.39458482001635</v>
+        <v>46.3945848200167</v>
       </c>
       <c r="H23">
-        <v>36.15080480581407</v>
+        <v>36.15080480581425</v>
       </c>
       <c r="I23">
-        <v>5.821159177921905</v>
+        <v>5.821159177921996</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.53768359507013</v>
+        <v>20.53768359507026</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.18615357169828</v>
+        <v>31.18615357169805</v>
       </c>
       <c r="C24">
-        <v>26.21199880401193</v>
+        <v>26.21199880401181</v>
       </c>
       <c r="D24">
-        <v>9.923763917200773</v>
+        <v>9.923763917200782</v>
       </c>
       <c r="E24">
-        <v>12.21927691546526</v>
+        <v>12.21927691546525</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.72571934986146</v>
+        <v>42.72571934986127</v>
       </c>
       <c r="H24">
-        <v>33.60006509029343</v>
+        <v>33.60006509029329</v>
       </c>
       <c r="I24">
-        <v>5.412312488633651</v>
+        <v>5.412312488633622</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.70929265909727</v>
+        <v>18.70929265909724</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.85901115474381</v>
+        <v>27.85901115474378</v>
       </c>
       <c r="C25">
-        <v>23.36158839958785</v>
+        <v>23.36158839958786</v>
       </c>
       <c r="D25">
-        <v>8.905122776453961</v>
+        <v>8.905122776453958</v>
       </c>
       <c r="E25">
-        <v>11.03439397198741</v>
+        <v>11.03439397198744</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.87141529611364</v>
+        <v>38.87141529611377</v>
       </c>
       <c r="H25">
-        <v>30.91878722781782</v>
+        <v>30.91878722781792</v>
       </c>
       <c r="I25">
-        <v>5.169885746690888</v>
+        <v>5.169885746690907</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.66851572668143</v>
+        <v>16.66851572668145</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.26694365750014</v>
+        <v>25.2654550254748</v>
       </c>
       <c r="C2">
-        <v>21.15247832416861</v>
+        <v>21.14207109617199</v>
       </c>
       <c r="D2">
-        <v>8.188657937640617</v>
+        <v>8.188701574038333</v>
       </c>
       <c r="E2">
-        <v>10.18794263618903</v>
+        <v>10.18899254522701</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.03266274976774</v>
+        <v>35.24937172143843</v>
       </c>
       <c r="H2">
-        <v>28.98483195531595</v>
+        <v>36.07235179538655</v>
       </c>
       <c r="I2">
-        <v>5.006897247482043</v>
+        <v>28.9449029736858</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.007505118506392</v>
       </c>
       <c r="K2">
-        <v>15.08829229731214</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15.08559877248635</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.41104709488722</v>
+        <v>23.41002835061913</v>
       </c>
       <c r="C3">
-        <v>19.57647900421737</v>
+        <v>19.56707082081539</v>
       </c>
       <c r="D3">
-        <v>7.691712043413049</v>
+        <v>7.691808357557959</v>
       </c>
       <c r="E3">
-        <v>9.606285209639735</v>
+        <v>9.607335474384508</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.10204985056472</v>
+        <v>33.08325712602301</v>
       </c>
       <c r="H3">
-        <v>27.69406441976128</v>
+        <v>34.14016958699642</v>
       </c>
       <c r="I3">
-        <v>4.904892581418744</v>
+        <v>27.65728377941328</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.905474796326355</v>
       </c>
       <c r="K3">
-        <v>13.96164113412284</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>13.95928149599371</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.21970897788123</v>
+        <v>22.21895458761195</v>
       </c>
       <c r="C4">
-        <v>18.56717701666206</v>
+        <v>18.55837624645847</v>
       </c>
       <c r="D4">
-        <v>7.380930355197321</v>
+        <v>7.381052323125942</v>
       </c>
       <c r="E4">
-        <v>9.245178091642952</v>
+        <v>9.246221865291465</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.91294495013442</v>
+        <v>31.7339086900582</v>
       </c>
       <c r="H4">
-        <v>26.91067841899113</v>
+        <v>32.95015323168492</v>
       </c>
       <c r="I4">
-        <v>4.846106265727313</v>
+        <v>26.87590365956977</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.84667220631121</v>
       </c>
       <c r="K4">
-        <v>13.24037943652641</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>13.23821684737224</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.72082760243914</v>
+        <v>21.72017560818988</v>
       </c>
       <c r="C5">
-        <v>18.14505451078303</v>
+        <v>18.13650051576813</v>
       </c>
       <c r="D5">
-        <v>7.25290096020866</v>
+        <v>7.253031910213731</v>
       </c>
       <c r="E5">
-        <v>9.097077362795805</v>
+        <v>9.098117080521456</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.42755944347503</v>
+        <v>31.17924722854399</v>
       </c>
       <c r="H5">
-        <v>26.59374095815096</v>
+        <v>32.46441066444485</v>
       </c>
       <c r="I5">
-        <v>4.823074777805894</v>
+        <v>26.55980198637762</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.8236340415398</v>
       </c>
       <c r="K5">
-        <v>12.98715841712776</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>12.98513105879869</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.63716918032464</v>
+        <v>21.6365338856265</v>
       </c>
       <c r="C6">
-        <v>18.07429803839462</v>
+        <v>18.06578499386095</v>
       </c>
       <c r="D6">
-        <v>7.231560114187864</v>
+        <v>7.231692472243354</v>
       </c>
       <c r="E6">
-        <v>9.072430548105189</v>
+        <v>9.073469514552983</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.34691831982023</v>
+        <v>31.08686217056727</v>
       </c>
       <c r="H6">
-        <v>26.54125385018678</v>
+        <v>32.38371115533334</v>
       </c>
       <c r="I6">
-        <v>4.81930507533595</v>
+        <v>26.50745476447313</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.819863229920139</v>
       </c>
       <c r="K6">
-        <v>12.94515113599791</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>12.9431328648627</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.21303561512715</v>
+        <v>22.21228262652219</v>
       </c>
       <c r="C7">
-        <v>18.56152839052691</v>
+        <v>18.55273095057868</v>
       </c>
       <c r="D7">
-        <v>7.379209227427704</v>
+        <v>7.379331322199674</v>
       </c>
       <c r="E7">
-        <v>9.243184485546818</v>
+        <v>9.244228209868583</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.90640192023273</v>
+        <v>31.72644750946156</v>
       </c>
       <c r="H7">
-        <v>26.90639473334334</v>
+        <v>32.94360532652003</v>
       </c>
       <c r="I7">
-        <v>4.845791965549246</v>
+        <v>26.8716311714451</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.84635781616508</v>
       </c>
       <c r="K7">
-        <v>13.2363433785634</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>13.23418185741246</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.63754536891796</v>
+        <v>24.63622426972058</v>
       </c>
       <c r="C8">
-        <v>20.61748753006593</v>
+        <v>20.60742653135834</v>
       </c>
       <c r="D8">
-        <v>8.018495481459482</v>
+        <v>8.018558808408191</v>
       </c>
       <c r="E8">
-        <v>9.988226368054178</v>
+        <v>9.989277971120543</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.36777898481571</v>
+        <v>34.50650057628355</v>
       </c>
       <c r="H8">
-        <v>28.53785035187243</v>
+        <v>35.40691687945613</v>
       </c>
       <c r="I8">
-        <v>4.970901151417901</v>
+        <v>28.49899198367815</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.971500341053246</v>
       </c>
       <c r="K8">
-        <v>14.70577659075222</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>14.70320015873715</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.00029956404798</v>
+        <v>28.99762889258466</v>
       </c>
       <c r="C9">
-        <v>24.33738813821833</v>
+        <v>24.32475678048635</v>
       </c>
       <c r="D9">
-        <v>9.227750287771906</v>
+        <v>9.227633359687248</v>
       </c>
       <c r="E9">
-        <v>11.41818801783239</v>
+        <v>11.41918679450253</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.16858836937728</v>
+        <v>39.81116370346673</v>
       </c>
       <c r="H9">
-        <v>31.81472666888835</v>
+        <v>40.21187651835706</v>
       </c>
       <c r="I9">
-        <v>5.248950237122698</v>
+        <v>31.76838930234004</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.249605848244252</v>
       </c>
       <c r="K9">
-        <v>17.3669134473242</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>17.36343297750753</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.9986410586328</v>
+        <v>31.99475387569053</v>
       </c>
       <c r="C10">
-        <v>26.91080413480178</v>
+        <v>26.89614448256189</v>
       </c>
       <c r="D10">
-        <v>10.18949642708567</v>
+        <v>10.18909862707872</v>
       </c>
       <c r="E10">
-        <v>12.55015378557068</v>
+        <v>12.55107871457277</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.69899812860946</v>
+        <v>43.64319663917067</v>
       </c>
       <c r="H10">
-        <v>34.28559527769989</v>
+        <v>43.74547193306584</v>
       </c>
       <c r="I10">
-        <v>5.499641774355153</v>
+        <v>34.234023544127</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.500563765855703</v>
       </c>
       <c r="K10">
-        <v>19.20992724755995</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>19.20567760131264</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.3265616943563</v>
+        <v>33.32204606506428</v>
       </c>
       <c r="C11">
-        <v>28.05539231395673</v>
+        <v>28.03975278904312</v>
       </c>
       <c r="D11">
-        <v>10.62479309500464</v>
+        <v>10.62427959406245</v>
       </c>
       <c r="E11">
-        <v>13.09265731715388</v>
+        <v>13.0935089258875</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.31463552463653</v>
+        <v>45.38247603982266</v>
       </c>
       <c r="H11">
-        <v>35.43013264302735</v>
+        <v>45.38247603982369</v>
       </c>
       <c r="I11">
-        <v>5.697911531139082</v>
+        <v>35.37620651887008</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.698853415553989</v>
       </c>
       <c r="K11">
-        <v>20.03019465648739</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>20.02555631345917</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.82514537153563</v>
+        <v>33.82037792577437</v>
       </c>
       <c r="C12">
-        <v>28.48595888398803</v>
+        <v>28.46993697108316</v>
       </c>
       <c r="D12">
-        <v>10.78854532576433</v>
+        <v>10.78798421787964</v>
       </c>
       <c r="E12">
-        <v>13.29690607292987</v>
+        <v>13.2977252542548</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.95805196696787</v>
+        <v>46.04176883564535</v>
       </c>
       <c r="H12">
-        <v>35.86733134552964</v>
+        <v>46.04176883564539</v>
       </c>
       <c r="I12">
-        <v>5.77281811938707</v>
+        <v>35.81251385034706</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.773765432993406</v>
       </c>
       <c r="K12">
-        <v>20.33884406099699</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>20.33405107798589</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.71793985722331</v>
+        <v>33.71322731864137</v>
       </c>
       <c r="C13">
-        <v>28.39333993900535</v>
+        <v>28.37740094386653</v>
       </c>
       <c r="D13">
-        <v>10.75332082310707</v>
+        <v>10.7527701537808</v>
       </c>
       <c r="E13">
-        <v>13.25296247438688</v>
+        <v>13.25378886720974</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.81247975942091</v>
+        <v>45.89972513576727</v>
       </c>
       <c r="H13">
-        <v>35.77298807204125</v>
+        <v>45.89972513604692</v>
       </c>
       <c r="I13">
-        <v>5.756690525684367</v>
+        <v>35.71836261274432</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.757636770607657</v>
       </c>
       <c r="K13">
-        <v>20.2724468045876</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>20.26768749349296</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.36766017811399</v>
+        <v>33.36312412980984</v>
       </c>
       <c r="C14">
-        <v>28.09086695091997</v>
+        <v>28.07519621497482</v>
       </c>
       <c r="D14">
-        <v>10.63828477604547</v>
+        <v>10.63776744044098</v>
       </c>
       <c r="E14">
-        <v>13.10948200396642</v>
+        <v>13.11033104551086</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.36511722664685</v>
+        <v>45.43669474478354</v>
       </c>
       <c r="H14">
-        <v>35.46601957561236</v>
+        <v>45.43669474478354</v>
       </c>
       <c r="I14">
-        <v>5.704076612054395</v>
+        <v>35.4120201394058</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.70501898777774</v>
       </c>
       <c r="K14">
-        <v>20.05562273705594</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>20.05097183379164</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.15257778183065</v>
+        <v>33.14814793084415</v>
       </c>
       <c r="C15">
-        <v>27.90524993785315</v>
+        <v>27.88974193462784</v>
       </c>
       <c r="D15">
-        <v>10.56769113148826</v>
+        <v>10.5671936892884</v>
       </c>
       <c r="E15">
-        <v>13.02145574163258</v>
+        <v>13.02231801228738</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.10124256763898</v>
+        <v>45.15320473505471</v>
       </c>
       <c r="H15">
-        <v>35.27851516593287</v>
+        <v>45.15320473505462</v>
       </c>
       <c r="I15">
-        <v>5.671831620495135</v>
+        <v>35.22489908197202</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.672771339597795</v>
       </c>
       <c r="K15">
-        <v>19.92257664652531</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>19.91799111075638</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.91120692488564</v>
+        <v>31.90735906178809</v>
       </c>
       <c r="C16">
-        <v>26.8355495696639</v>
+        <v>26.82095255815289</v>
       </c>
       <c r="D16">
-        <v>10.16087813233745</v>
+        <v>10.16048741603919</v>
       </c>
       <c r="E16">
-        <v>12.51450903136258</v>
+        <v>12.51543816360333</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.5936936960939</v>
+        <v>43.529548595751</v>
       </c>
       <c r="H16">
-        <v>34.21127553672116</v>
+        <v>43.64007220018375</v>
       </c>
       <c r="I16">
-        <v>5.486650877821685</v>
+        <v>34.15985791967917</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.487571296841598</v>
       </c>
       <c r="K16">
-        <v>19.15600776381427</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>19.1517825918114</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.14102888514305</v>
+        <v>31.13751692966071</v>
       </c>
       <c r="C17">
-        <v>26.17322061925889</v>
+        <v>26.15916588220795</v>
       </c>
       <c r="D17">
-        <v>9.909018896881626</v>
+        <v>9.908687905035727</v>
       </c>
       <c r="E17">
-        <v>12.20092356150416</v>
+        <v>12.20188661861646</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.67201461611667</v>
+        <v>42.53324667737771</v>
       </c>
       <c r="H17">
-        <v>33.56232938726912</v>
+        <v>42.71755875399138</v>
       </c>
       <c r="I17">
-        <v>5.408785420351602</v>
+        <v>33.5122650563215</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.409462045860838</v>
       </c>
       <c r="K17">
-        <v>18.68151504802808</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>18.6774998473655</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.69458667103579</v>
+        <v>30.69126108273324</v>
       </c>
       <c r="C18">
-        <v>25.78975030075042</v>
+        <v>25.77600231287548</v>
       </c>
       <c r="D18">
-        <v>9.763215309192978</v>
+        <v>9.762916820048346</v>
       </c>
       <c r="E18">
-        <v>12.01947491880208</v>
+        <v>12.02045519740829</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.14271015384312</v>
+        <v>41.95973694547104</v>
       </c>
       <c r="H18">
-        <v>33.19094064797915</v>
+        <v>42.18777541463587</v>
       </c>
       <c r="I18">
-        <v>5.374237021594872</v>
+        <v>33.14165748761854</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.374909842389426</v>
       </c>
       <c r="K18">
-        <v>18.40684817627122</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>18.40295023323635</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.54281050305598</v>
+        <v>30.53954691998348</v>
       </c>
       <c r="C19">
-        <v>25.65945755139273</v>
+        <v>25.64581261914984</v>
       </c>
       <c r="D19">
-        <v>9.713678475385871</v>
+        <v>9.71339069588802</v>
       </c>
       <c r="E19">
-        <v>11.95784207137918</v>
+        <v>11.95882781411082</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.9636094130276</v>
+        <v>41.76544507196942</v>
       </c>
       <c r="H19">
-        <v>33.0654943818445</v>
+        <v>42.00851276856577</v>
       </c>
       <c r="I19">
-        <v>5.362635829429845</v>
+        <v>33.01647628592054</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.363307279987143</v>
       </c>
       <c r="K19">
-        <v>18.31353248015656</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>18.30967368357767</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.22336732424649</v>
+        <v>31.2198203378054</v>
       </c>
       <c r="C20">
-        <v>26.24398124368874</v>
+        <v>26.2298693335678</v>
       </c>
       <c r="D20">
-        <v>9.935925015955286</v>
+        <v>9.935587863200153</v>
       </c>
       <c r="E20">
-        <v>12.23441452168392</v>
+        <v>12.23537421110436</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.77003700060479</v>
+        <v>42.63934488105332</v>
       </c>
       <c r="H20">
-        <v>33.63121227800072</v>
+        <v>42.81566986575607</v>
       </c>
       <c r="I20">
-        <v>5.415226038444525</v>
+        <v>33.5810036208939</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.415903327216132</v>
       </c>
       <c r="K20">
-        <v>18.73220262859924</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>18.72816545143793</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.47065352355418</v>
+        <v>33.46606604021176</v>
       </c>
       <c r="C21">
-        <v>28.17978034926034</v>
+        <v>28.1640311560692</v>
       </c>
       <c r="D21">
-        <v>10.67210023310109</v>
+        <v>10.67157321782718</v>
       </c>
       <c r="E21">
-        <v>13.15165405630043</v>
+        <v>13.1524965819121</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.4917487805161</v>
+        <v>45.5726682797855</v>
       </c>
       <c r="H21">
-        <v>35.55607285400451</v>
+        <v>45.57266827984718</v>
       </c>
       <c r="I21">
-        <v>5.719533901669769</v>
+        <v>35.50188956981943</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.720477474422447</v>
       </c>
       <c r="K21">
-        <v>20.11935688002696</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>20.11467435473298</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.91505998004319</v>
+        <v>34.90970966373923</v>
       </c>
       <c r="C22">
-        <v>29.42879895459496</v>
+        <v>29.4119114619746</v>
       </c>
       <c r="D22">
-        <v>11.14710813553218</v>
+        <v>11.14643429887237</v>
       </c>
       <c r="E22">
-        <v>13.74447874241467</v>
+        <v>13.74521676043988</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.44571978677685</v>
+        <v>47.49639628910501</v>
       </c>
       <c r="H22">
-        <v>36.83675483126554</v>
+        <v>47.49449889210101</v>
       </c>
       <c r="I22">
-        <v>5.937434348898696</v>
+        <v>36.77997232458722</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.938389307557893</v>
       </c>
       <c r="K22">
-        <v>21.01487137695314</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>21.0097223256336</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.14602564644643</v>
+        <v>34.14109131155347</v>
       </c>
       <c r="C23">
-        <v>28.76330691753872</v>
+        <v>28.74703449103178</v>
       </c>
       <c r="D23">
-        <v>10.89402429093949</v>
+        <v>10.89343126046595</v>
       </c>
       <c r="E23">
-        <v>13.42852061259464</v>
+        <v>13.42931740459145</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.3945848200167</v>
+        <v>46.46784063869821</v>
       </c>
       <c r="H23">
-        <v>36.15080480581425</v>
+        <v>46.46784063869826</v>
       </c>
       <c r="I23">
-        <v>5.821159177921996</v>
+        <v>36.09541124432131</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.822109359158323</v>
       </c>
       <c r="K23">
-        <v>20.53768359507026</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>20.53278841458517</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.18615357169805</v>
+        <v>31.18262244356322</v>
       </c>
       <c r="C24">
-        <v>26.21199880401181</v>
+        <v>26.19791275722462</v>
       </c>
       <c r="D24">
-        <v>9.923763917200782</v>
+        <v>9.923429555442462</v>
       </c>
       <c r="E24">
-        <v>12.21927691546525</v>
+        <v>12.22023813445445</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.72571934986127</v>
+        <v>42.59138022153022</v>
       </c>
       <c r="H24">
-        <v>33.60006509029329</v>
+        <v>42.77131209872933</v>
       </c>
       <c r="I24">
-        <v>5.412312488633622</v>
+        <v>33.54992167297704</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.412989479166064</v>
       </c>
       <c r="K24">
-        <v>18.70929265909724</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>18.70526542814808</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.85901115474378</v>
+        <v>27.85673793534653</v>
       </c>
       <c r="C25">
-        <v>23.36158839958786</v>
+        <v>23.34966962326633</v>
       </c>
       <c r="D25">
-        <v>8.905122776453958</v>
+        <v>8.905063498427248</v>
       </c>
       <c r="E25">
-        <v>11.03439397198744</v>
+        <v>11.0354167382616</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.87141529611377</v>
+        <v>38.39014806848478</v>
       </c>
       <c r="H25">
-        <v>30.91878722781792</v>
+        <v>38.9135505450202</v>
       </c>
       <c r="I25">
-        <v>5.169885746690907</v>
+        <v>30.87441981501123</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.170527823955521</v>
       </c>
       <c r="K25">
-        <v>16.66851572668145</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>16.66529389736424</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.2654550254748</v>
+        <v>33.74124214164569</v>
       </c>
       <c r="C2">
-        <v>21.14207109617199</v>
+        <v>17.48768729505002</v>
       </c>
       <c r="D2">
-        <v>8.188701574038333</v>
+        <v>7.869953788884172</v>
       </c>
       <c r="E2">
-        <v>10.18899254522701</v>
+        <v>6.257336366060327</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.24937172143843</v>
+        <v>2.177005017979236</v>
       </c>
       <c r="H2">
-        <v>36.07235179538655</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>28.9449029736858</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.007505118506392</v>
+        <v>4.42274377406562</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>27.52862464476926</v>
       </c>
       <c r="L2">
-        <v>15.08559877248635</v>
+        <v>10.21014103778129</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>23.03431490516618</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.41002835061913</v>
+        <v>32.11579582335931</v>
       </c>
       <c r="C3">
-        <v>19.56707082081539</v>
+        <v>16.39589373425524</v>
       </c>
       <c r="D3">
-        <v>7.691808357557959</v>
+        <v>7.744235145481169</v>
       </c>
       <c r="E3">
-        <v>9.607335474384508</v>
+        <v>6.301952323902986</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.08325712602301</v>
+        <v>2.195417733197953</v>
       </c>
       <c r="H3">
-        <v>34.14016958699642</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>27.65728377941328</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.905474796326355</v>
+        <v>4.395932507949948</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>26.2235149003874</v>
       </c>
       <c r="L3">
-        <v>13.95928149599371</v>
+        <v>10.01595782577148</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>22.7597875417491</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.21895458761195</v>
+        <v>31.12035172172037</v>
       </c>
       <c r="C4">
-        <v>18.55837624645847</v>
+        <v>15.71444287594619</v>
       </c>
       <c r="D4">
-        <v>7.381052323125942</v>
+        <v>7.672915795049177</v>
       </c>
       <c r="E4">
-        <v>9.246221865291465</v>
+        <v>6.331190187644138</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.7339086900582</v>
+        <v>2.206850498152975</v>
       </c>
       <c r="H4">
-        <v>32.95015323168492</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>26.87590365956977</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.84667220631121</v>
+        <v>4.379893435821371</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>25.4256595011663</v>
       </c>
       <c r="L4">
-        <v>13.23821684737224</v>
+        <v>9.904513819984279</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>22.597090996498</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.72017560818988</v>
+        <v>30.71547659013741</v>
       </c>
       <c r="C5">
-        <v>18.13650051576813</v>
+        <v>15.43397847146045</v>
       </c>
       <c r="D5">
-        <v>7.253031910213731</v>
+        <v>7.64526470649987</v>
       </c>
       <c r="E5">
-        <v>9.098117080521456</v>
+        <v>6.343567214889114</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.17924722854399</v>
+        <v>2.211550047549006</v>
       </c>
       <c r="H5">
-        <v>32.46441066444485</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>26.55980198637762</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.8236340415398</v>
+        <v>4.37344599661339</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>25.10149480786363</v>
       </c>
       <c r="L5">
-        <v>12.98513105879869</v>
+        <v>9.860973398718505</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>22.53216041460577</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.6365338856265</v>
+        <v>30.64830019094785</v>
       </c>
       <c r="C6">
-        <v>18.06578499386095</v>
+        <v>15.38724280899942</v>
       </c>
       <c r="D6">
-        <v>7.231692472243354</v>
+        <v>7.640756765347173</v>
       </c>
       <c r="E6">
-        <v>9.073469514552983</v>
+        <v>6.3456503071216</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.08686217056727</v>
+        <v>2.212333088771434</v>
       </c>
       <c r="H6">
-        <v>32.38371115533334</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>26.50745476447313</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.819863229920139</v>
+        <v>4.372380277787964</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>25.04773038630969</v>
       </c>
       <c r="L6">
-        <v>12.9431328648627</v>
+        <v>9.85385442386999</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>22.52145861383734</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.21228262652219</v>
+        <v>31.11488803857385</v>
       </c>
       <c r="C7">
-        <v>18.55273095057868</v>
+        <v>15.71067154610456</v>
       </c>
       <c r="D7">
-        <v>7.379331322199674</v>
+        <v>7.672537246545644</v>
       </c>
       <c r="E7">
-        <v>9.244228209868583</v>
+        <v>6.331355237822844</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.72644750946156</v>
+        <v>2.206913702885006</v>
       </c>
       <c r="H7">
-        <v>32.94360532652003</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>26.8716311714451</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.84635781616508</v>
+        <v>4.379806146516745</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>25.42128359618941</v>
       </c>
       <c r="L7">
-        <v>13.23418185741246</v>
+        <v>9.903919136083779</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>22.59620990470253</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.63622426972058</v>
+        <v>33.18028822652543</v>
       </c>
       <c r="C8">
-        <v>20.60742653135834</v>
+        <v>17.11351944320178</v>
       </c>
       <c r="D8">
-        <v>8.018558808408191</v>
+        <v>7.825346414068902</v>
       </c>
       <c r="E8">
-        <v>9.989277971120543</v>
+        <v>6.272336511516528</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.50650057628355</v>
+        <v>2.183332821769793</v>
       </c>
       <c r="H8">
-        <v>35.40691687945613</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>28.49899198367815</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.971500341053246</v>
+        <v>4.413399969463002</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>27.07792272647896</v>
       </c>
       <c r="L8">
-        <v>14.70320015873715</v>
+        <v>10.141517522069</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>22.9383733500644</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.99762889258466</v>
+        <v>37.25292584791663</v>
       </c>
       <c r="C9">
-        <v>24.32475678048635</v>
+        <v>19.78109677878887</v>
       </c>
       <c r="D9">
-        <v>9.227633359687248</v>
+        <v>8.174922468558494</v>
       </c>
       <c r="E9">
-        <v>11.41918679450253</v>
+        <v>6.171301239105849</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.81116370346673</v>
+        <v>2.137646969154514</v>
       </c>
       <c r="H9">
-        <v>40.21187651835706</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>31.76838930234004</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>5.249605848244252</v>
+        <v>4.483582253599828</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>30.35619830141243</v>
       </c>
       <c r="L9">
-        <v>17.36343297750753</v>
+        <v>10.67362727305814</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>23.66145628352793</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.99475387569053</v>
+        <v>40.27460125083732</v>
       </c>
       <c r="C10">
-        <v>26.89614448256189</v>
+        <v>21.70511838543469</v>
       </c>
       <c r="D10">
-        <v>10.18909862707872</v>
+        <v>8.467765349825953</v>
       </c>
       <c r="E10">
-        <v>12.55107871457277</v>
+        <v>6.106171624351833</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.64319663917067</v>
+        <v>2.103656995595255</v>
       </c>
       <c r="H10">
-        <v>43.74547193306584</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>34.234023544127</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5.500563765855703</v>
+        <v>4.539380961955819</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>32.79622944656587</v>
       </c>
       <c r="L10">
-        <v>19.20567760131264</v>
+        <v>11.1125134447558</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>24.23394825700645</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.32204606506428</v>
+        <v>41.66364586641443</v>
       </c>
       <c r="C11">
-        <v>28.03975278904312</v>
+        <v>22.60042383493953</v>
       </c>
       <c r="D11">
-        <v>10.62427959406245</v>
+        <v>8.610439116651586</v>
       </c>
       <c r="E11">
-        <v>13.0935089258875</v>
+        <v>6.078564471053165</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>45.38247603982266</v>
+        <v>2.08788151713588</v>
       </c>
       <c r="H11">
-        <v>45.38247603982369</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>35.37620651887008</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.698853415553989</v>
+        <v>4.566156329238052</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>33.91973654309432</v>
       </c>
       <c r="L11">
-        <v>20.02555631345917</v>
+        <v>11.32487822066956</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>24.50612136537485</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.82037792577437</v>
+        <v>42.19277881304546</v>
       </c>
       <c r="C12">
-        <v>28.46993697108316</v>
+        <v>22.94891869281992</v>
       </c>
       <c r="D12">
-        <v>10.78798421787964</v>
+        <v>8.666005270831894</v>
       </c>
       <c r="E12">
-        <v>13.2977252542548</v>
+        <v>6.068406308834951</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>46.04176883564535</v>
+        <v>2.081839012854027</v>
       </c>
       <c r="H12">
-        <v>46.04176883564539</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>35.81251385034706</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.773765432993406</v>
+        <v>4.576546909880036</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>34.34799889030228</v>
       </c>
       <c r="L12">
-        <v>20.33405107798589</v>
+        <v>11.4073801182649</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>24.6111767267354</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.71322731864137</v>
+        <v>42.07866040100661</v>
       </c>
       <c r="C13">
-        <v>28.37740094386653</v>
+        <v>22.87386450791124</v>
       </c>
       <c r="D13">
-        <v>10.7527701537808</v>
+        <v>8.653966319346326</v>
       </c>
       <c r="E13">
-        <v>13.25378886720974</v>
+        <v>6.070580779026921</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.89972513576727</v>
+        <v>2.083143865480657</v>
       </c>
       <c r="H13">
-        <v>45.89972513604692</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>35.71836261274432</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.757636770607657</v>
+        <v>4.574296983485629</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>34.25562248881216</v>
       </c>
       <c r="L13">
-        <v>20.26768749349296</v>
+        <v>11.38951433286723</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>24.58845709933732</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.36312412980984</v>
+        <v>41.70710779906565</v>
       </c>
       <c r="C14">
-        <v>28.07519621497482</v>
+        <v>22.62909639473492</v>
       </c>
       <c r="D14">
-        <v>10.63776744044098</v>
+        <v>8.614978549619916</v>
       </c>
       <c r="E14">
-        <v>13.11033104551086</v>
+        <v>6.077722782344094</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>45.43669474478354</v>
+        <v>2.087385928313954</v>
       </c>
       <c r="H14">
-        <v>45.43669474478354</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>35.4120201394058</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.70501898777774</v>
+        <v>4.567005793631636</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>33.95490742736823</v>
       </c>
       <c r="L14">
-        <v>20.05097183379164</v>
+        <v>11.33162221788965</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>24.5147224745644</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.14814793084415</v>
+        <v>41.47996663424708</v>
       </c>
       <c r="C15">
-        <v>27.88974193462784</v>
+        <v>22.47915031532415</v>
       </c>
       <c r="D15">
-        <v>10.5671936892884</v>
+        <v>8.59130388961356</v>
       </c>
       <c r="E15">
-        <v>13.02231801228738</v>
+        <v>6.082136211374571</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>45.15320473505471</v>
+        <v>2.089974575215761</v>
       </c>
       <c r="H15">
-        <v>45.15320473505462</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>35.22489908197202</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.672771339597795</v>
+        <v>4.562574190333726</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>33.77110846497365</v>
       </c>
       <c r="L15">
-        <v>19.91799111075638</v>
+        <v>11.2964418055639</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>24.46982714420536</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.90735906178809</v>
+        <v>40.18419660095527</v>
       </c>
       <c r="C16">
-        <v>26.82095255815289</v>
+        <v>21.64805110994161</v>
       </c>
       <c r="D16">
-        <v>10.16048741603919</v>
+        <v>8.458645866158623</v>
       </c>
       <c r="E16">
-        <v>12.51543816360333</v>
+        <v>6.108016914491425</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.529548595751</v>
+        <v>2.104679758080972</v>
       </c>
       <c r="H16">
-        <v>43.64007220018375</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>34.15985791967917</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.487571296841598</v>
+        <v>4.53766324224198</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>32.72314523470206</v>
       </c>
       <c r="L16">
-        <v>19.1517825918114</v>
+        <v>11.09891107337608</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>24.21642148934625</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.13751692966071</v>
+        <v>39.39362511770484</v>
       </c>
       <c r="C17">
-        <v>26.15916588220795</v>
+        <v>21.14781788152195</v>
       </c>
       <c r="D17">
-        <v>9.908687905035727</v>
+        <v>8.379800523351912</v>
       </c>
       <c r="E17">
-        <v>12.20188661861646</v>
+        <v>6.124414893226248</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.53324667737771</v>
+        <v>2.11360549023632</v>
       </c>
       <c r="H17">
-        <v>42.71755875399138</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>33.5122650563215</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5.409462045860838</v>
+        <v>4.522770498470116</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>32.0842438192461</v>
       </c>
       <c r="L17">
-        <v>18.6774998473655</v>
+        <v>10.981150158408</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>24.06416530082323</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.69126108273324</v>
+        <v>38.94018878686938</v>
       </c>
       <c r="C18">
-        <v>25.77600231287548</v>
+        <v>20.85988734389375</v>
       </c>
       <c r="D18">
-        <v>9.762916820048346</v>
+        <v>8.335328076062227</v>
       </c>
       <c r="E18">
-        <v>12.02045519740829</v>
+        <v>6.134036364364401</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.95973694547104</v>
+        <v>2.118711535741696</v>
       </c>
       <c r="H18">
-        <v>42.18777541463587</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>33.14165748761854</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.374909842389426</v>
+        <v>4.514331960692862</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>31.71796949170123</v>
       </c>
       <c r="L18">
-        <v>18.40295023323635</v>
+        <v>10.91459512460704</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>23.97767530515333</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.53954691998348</v>
+        <v>38.78685660697487</v>
       </c>
       <c r="C19">
-        <v>25.64581261914984</v>
+        <v>20.76234386439622</v>
       </c>
       <c r="D19">
-        <v>9.71339069588802</v>
+        <v>8.320416408557531</v>
       </c>
       <c r="E19">
-        <v>11.95882781411082</v>
+        <v>6.137326480745191</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.76544507196942</v>
+        <v>2.120436215609002</v>
       </c>
       <c r="H19">
-        <v>42.00851276856577</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.01647628592054</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.363307279987143</v>
+        <v>4.511495326017447</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>31.59414056041848</v>
       </c>
       <c r="L19">
-        <v>18.30967368357767</v>
+        <v>10.89225631362316</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>23.94856938559263</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.2198203378054</v>
+        <v>39.47764393184097</v>
       </c>
       <c r="C20">
-        <v>26.2298693335678</v>
+        <v>21.2010855677404</v>
       </c>
       <c r="D20">
-        <v>9.935587863200153</v>
+        <v>8.38810179387313</v>
       </c>
       <c r="E20">
-        <v>12.23537421110436</v>
+        <v>6.122649622874673</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.63934488105332</v>
+        <v>2.112658362127871</v>
       </c>
       <c r="H20">
-        <v>42.81566986575607</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>33.5810036208939</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5.415903327216132</v>
+        <v>4.52434234150775</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>32.15212592824302</v>
       </c>
       <c r="L20">
-        <v>18.72816545143793</v>
+        <v>10.99356245814024</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>24.08025911913467</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.46606604021176</v>
+        <v>41.81614652600395</v>
       </c>
       <c r="C21">
-        <v>28.1640311560692</v>
+        <v>22.70099278726425</v>
       </c>
       <c r="D21">
-        <v>10.67157321782718</v>
+        <v>8.62638678636689</v>
       </c>
       <c r="E21">
-        <v>13.1524965819121</v>
+        <v>6.075616916222556</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>45.5726682797855</v>
+        <v>2.086142011582353</v>
       </c>
       <c r="H21">
-        <v>45.57266827984718</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>35.50188956981943</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.720477474422447</v>
+        <v>4.569140101525856</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>34.04314984099664</v>
       </c>
       <c r="L21">
-        <v>20.11467435473298</v>
+        <v>11.3485675863493</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>24.53632336246435</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.90970966373923</v>
+        <v>43.363532171154</v>
       </c>
       <c r="C22">
-        <v>29.4119114619746</v>
+        <v>23.71575493709684</v>
       </c>
       <c r="D22">
-        <v>11.14643429887237</v>
+        <v>8.791208376174223</v>
       </c>
       <c r="E22">
-        <v>13.74521676043988</v>
+        <v>6.046607778661395</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>47.49639628910501</v>
+        <v>2.068396392534483</v>
       </c>
       <c r="H22">
-        <v>47.49449889210101</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>36.77997232458722</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.938389307557893</v>
+        <v>4.599916643965908</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>35.29609714780279</v>
       </c>
       <c r="L22">
-        <v>21.0097223256336</v>
+        <v>11.59290549079626</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>24.84618156868662</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.14109131155347</v>
+        <v>42.53546888433959</v>
       </c>
       <c r="C23">
-        <v>28.74703449103178</v>
+        <v>23.17396295638045</v>
       </c>
       <c r="D23">
-        <v>10.89343126046595</v>
+        <v>8.702336336122526</v>
       </c>
       <c r="E23">
-        <v>13.42931740459145</v>
+        <v>6.061930016349365</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>46.46784063869821</v>
+        <v>2.077914957438561</v>
       </c>
       <c r="H23">
-        <v>46.46784063869826</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>36.09541124432131</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.822109359158323</v>
+        <v>4.583333100095115</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>34.62544101917943</v>
       </c>
       <c r="L23">
-        <v>20.53278841458517</v>
+        <v>11.46126612283541</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>24.67960509641849</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.18262244356322</v>
+        <v>39.43965575561357</v>
       </c>
       <c r="C24">
-        <v>26.19791275722462</v>
+        <v>21.17700435830745</v>
       </c>
       <c r="D24">
-        <v>9.923429555442462</v>
+        <v>8.384346133590489</v>
       </c>
       <c r="E24">
-        <v>12.22023813445445</v>
+        <v>6.123447097557875</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.59138022153022</v>
+        <v>2.113086636393589</v>
       </c>
       <c r="H24">
-        <v>42.77131209872933</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>33.54992167297704</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.412989479166064</v>
+        <v>4.523631330284015</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>32.12143325306711</v>
       </c>
       <c r="L24">
-        <v>18.70526542814808</v>
+        <v>10.98794730221571</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>24.07297987334393</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.85673793534653</v>
+        <v>36.14785465686947</v>
       </c>
       <c r="C25">
-        <v>23.34966962326633</v>
+        <v>19.0672921324561</v>
       </c>
       <c r="D25">
-        <v>8.905063498427248</v>
+        <v>8.074494189482943</v>
       </c>
       <c r="E25">
-        <v>11.0354167382616</v>
+        <v>6.197048191664968</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.39014806848478</v>
+        <v>2.15001716953736</v>
       </c>
       <c r="H25">
-        <v>38.9135505450202</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>30.87441981501123</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>5.170527823955521</v>
+        <v>4.463987266638672</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>29.46536676185156</v>
       </c>
       <c r="L25">
-        <v>16.66529389736424</v>
+        <v>10.52190096588732</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>23.45939417340186</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.74124214164569</v>
+        <v>20.91154558862331</v>
       </c>
       <c r="C2">
-        <v>17.48768729505002</v>
+        <v>14.41861187375453</v>
       </c>
       <c r="D2">
-        <v>7.869953788884172</v>
+        <v>10.36716277914626</v>
       </c>
       <c r="E2">
-        <v>6.257336366060327</v>
+        <v>10.05813726010367</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.177005017979236</v>
+        <v>23.43518981311511</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.863363306848633</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.42274377406562</v>
+        <v>5.193989420589801</v>
       </c>
       <c r="K2">
-        <v>27.52862464476926</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>10.21014103778129</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.86144511110339</v>
       </c>
       <c r="N2">
-        <v>23.03431490516618</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.71030836487437</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32.11579582335931</v>
+        <v>19.53349005871634</v>
       </c>
       <c r="C3">
-        <v>16.39589373425524</v>
+        <v>13.56146586519747</v>
       </c>
       <c r="D3">
-        <v>7.744235145481169</v>
+        <v>10.07769838221937</v>
       </c>
       <c r="E3">
-        <v>6.301952323902986</v>
+        <v>9.937284849988179</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.195417733197953</v>
+        <v>22.97860792930882</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.932363578342278</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.395932507949948</v>
+        <v>5.249027415419135</v>
       </c>
       <c r="K3">
-        <v>26.2235149003874</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>10.01595782577148</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.99749936147499</v>
       </c>
       <c r="N3">
-        <v>22.7597875417491</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14.69703852343715</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31.12035172172037</v>
+        <v>18.63789051892113</v>
       </c>
       <c r="C4">
-        <v>15.71444287594619</v>
+        <v>13.00739497972739</v>
       </c>
       <c r="D4">
-        <v>7.672915795049177</v>
+        <v>9.903255081876049</v>
       </c>
       <c r="E4">
-        <v>6.331190187644138</v>
+        <v>9.870077935960394</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.206850498152975</v>
+        <v>22.73518094122576</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.983173076519712</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.379893435821371</v>
+        <v>5.284678146424063</v>
       </c>
       <c r="K4">
-        <v>25.4256595011663</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>9.904513819984279</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.44558965830196</v>
       </c>
       <c r="N4">
-        <v>22.597090996498</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>14.70838418699128</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30.71547659013741</v>
+        <v>18.26043161319271</v>
       </c>
       <c r="C5">
-        <v>15.43397847146045</v>
+        <v>12.77468536346012</v>
       </c>
       <c r="D5">
-        <v>7.64526470649987</v>
+        <v>9.833077045345894</v>
       </c>
       <c r="E5">
-        <v>6.343567214889114</v>
+        <v>9.844426831892072</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.211550047549006</v>
+        <v>22.64508315036537</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.005901759898929</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.37344599661339</v>
+        <v>5.299667671452393</v>
       </c>
       <c r="K5">
-        <v>25.10149480786363</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>9.860973398718505</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.21548702947893</v>
       </c>
       <c r="N5">
-        <v>22.53216041460577</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>14.71767920752897</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>30.64830019094785</v>
+        <v>18.19699870597068</v>
       </c>
       <c r="C6">
-        <v>15.38724280899942</v>
+        <v>12.73562842635894</v>
       </c>
       <c r="D6">
-        <v>7.640756765347173</v>
+        <v>9.821481355417468</v>
       </c>
       <c r="E6">
-        <v>6.3456503071216</v>
+        <v>9.840271591207774</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.212333088771434</v>
+        <v>22.63066577790871</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.009795216964839</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.372380277787964</v>
+        <v>5.302184400532364</v>
       </c>
       <c r="K6">
-        <v>25.04773038630969</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>9.85385442386999</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.17697151990247</v>
       </c>
       <c r="N6">
-        <v>22.52145861383734</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>14.71949798413372</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31.11488803857385</v>
+        <v>18.63285063599081</v>
       </c>
       <c r="C7">
-        <v>15.71067154610456</v>
+        <v>13.00428449833899</v>
       </c>
       <c r="D7">
-        <v>7.672537246545644</v>
+        <v>9.902304846501476</v>
       </c>
       <c r="E7">
-        <v>6.331355237822844</v>
+        <v>9.869724999848648</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.206913702885006</v>
+        <v>22.73392928223375</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.983471539375532</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.379806146516745</v>
+        <v>5.284878438276857</v>
       </c>
       <c r="K7">
-        <v>25.42128359618941</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>9.903919136083779</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.44250715559266</v>
       </c>
       <c r="N7">
-        <v>22.59620990470253</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>14.70849093496226</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.18028822652543</v>
+        <v>20.44662329860177</v>
       </c>
       <c r="C8">
-        <v>17.11351944320178</v>
+        <v>14.12886513819018</v>
       </c>
       <c r="D8">
-        <v>7.825346414068902</v>
+        <v>10.26672143169966</v>
       </c>
       <c r="E8">
-        <v>6.272336511516528</v>
+        <v>10.01500242768142</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.183332821769793</v>
+        <v>23.27000522396348</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.885340966345414</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.413399969463002</v>
+        <v>5.212577598604451</v>
       </c>
       <c r="K8">
-        <v>27.07792272647896</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>10.141517522069</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.56811255296575</v>
       </c>
       <c r="N8">
-        <v>22.9383733500644</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>14.70155008621797</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>37.25292584791663</v>
+        <v>23.61379429594054</v>
       </c>
       <c r="C9">
-        <v>19.78109677878887</v>
+        <v>16.11202221673735</v>
       </c>
       <c r="D9">
-        <v>8.174922468558494</v>
+        <v>11.00398621225253</v>
       </c>
       <c r="E9">
-        <v>6.171301239105849</v>
+        <v>10.35625969563831</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.137646969154514</v>
+        <v>24.61964413164264</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.764578257514778</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.483582253599828</v>
+        <v>5.085809627951003</v>
       </c>
       <c r="K9">
-        <v>30.35619830141243</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>10.67362727305814</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>17.5986581991524</v>
       </c>
       <c r="N9">
-        <v>23.66145628352793</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.85258008323228</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40.27460125083732</v>
+        <v>25.70760127504401</v>
       </c>
       <c r="C10">
-        <v>21.70511838543469</v>
+        <v>17.43259339907339</v>
       </c>
       <c r="D10">
-        <v>8.467765349825953</v>
+        <v>11.55520712435028</v>
       </c>
       <c r="E10">
-        <v>6.106171624351833</v>
+        <v>10.64230125675192</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.103656995595255</v>
+        <v>25.79737241867712</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.726268742870575</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.539380961955819</v>
+        <v>5.002268380021345</v>
       </c>
       <c r="K10">
-        <v>32.79622944656587</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>11.1125134447558</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>19.12823043150399</v>
       </c>
       <c r="N10">
-        <v>24.23394825700645</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.07689924359898</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>41.66364586641443</v>
+        <v>26.61057003546424</v>
       </c>
       <c r="C11">
-        <v>22.60042383493953</v>
+        <v>18.0037982040823</v>
       </c>
       <c r="D11">
-        <v>8.610439116651586</v>
+        <v>11.8072836120533</v>
       </c>
       <c r="E11">
-        <v>6.078564471053165</v>
+        <v>10.78025471061059</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.08788151713588</v>
+        <v>26.37373033272962</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.721317432940873</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.566156329238052</v>
+        <v>4.966464060588223</v>
       </c>
       <c r="K11">
-        <v>33.91973654309432</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>11.32487822066956</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>19.8044526605163</v>
       </c>
       <c r="N11">
-        <v>24.50612136537485</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.20611747004875</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>42.19277881304546</v>
+        <v>26.94547260581616</v>
       </c>
       <c r="C12">
-        <v>22.94891869281992</v>
+        <v>18.21587145888259</v>
       </c>
       <c r="D12">
-        <v>8.666005270831894</v>
+        <v>11.90287612375777</v>
       </c>
       <c r="E12">
-        <v>6.068406308834951</v>
+        <v>10.83363065113429</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.081839012854027</v>
+        <v>26.5977993545422</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.721367642611343</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.576546909880036</v>
+        <v>4.953233710913641</v>
       </c>
       <c r="K12">
-        <v>34.34799889030228</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11.4073801182649</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>20.05540528746622</v>
       </c>
       <c r="N12">
-        <v>24.6111767267354</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.25914851487296</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>42.07866040100661</v>
+        <v>26.87365664162607</v>
       </c>
       <c r="C13">
-        <v>22.87386450791124</v>
+        <v>18.17038543504553</v>
       </c>
       <c r="D13">
-        <v>8.653966319346326</v>
+        <v>11.88228324117266</v>
       </c>
       <c r="E13">
-        <v>6.070580779026921</v>
+        <v>10.82208450925477</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.083143865480657</v>
+        <v>26.54928395261093</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.721269083203746</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.574296983485629</v>
+        <v>4.956068313272096</v>
       </c>
       <c r="K13">
-        <v>34.25562248881216</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>11.38951433286723</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>20.00158457822033</v>
       </c>
       <c r="N13">
-        <v>24.58845709933732</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.24754213001161</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41.70710779906565</v>
+        <v>26.63826308233876</v>
       </c>
       <c r="C14">
-        <v>22.62909639473492</v>
+        <v>18.02133023654522</v>
       </c>
       <c r="D14">
-        <v>8.614978549619916</v>
+        <v>11.81514560053759</v>
       </c>
       <c r="E14">
-        <v>6.077722782344094</v>
+        <v>10.78462315908947</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.087385928313954</v>
+        <v>26.39204826243743</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.721282217468893</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.567005793631636</v>
+        <v>4.96536894596371</v>
       </c>
       <c r="K14">
-        <v>33.95490742736823</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.33162221788965</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>19.82520082811699</v>
       </c>
       <c r="N14">
-        <v>24.5147224745644</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.21039717068655</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>41.47996663424708</v>
+        <v>26.49316464534751</v>
       </c>
       <c r="C15">
-        <v>22.47915031532415</v>
+        <v>17.92947946247744</v>
       </c>
       <c r="D15">
-        <v>8.59130388961356</v>
+        <v>11.77403822023031</v>
       </c>
       <c r="E15">
-        <v>6.082136211374571</v>
+        <v>10.76182522507761</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.089974575215761</v>
+        <v>26.29649322650217</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.721544925580469</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.562574190333726</v>
+        <v>4.971108938307784</v>
       </c>
       <c r="K15">
-        <v>33.77110846497365</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>11.2964418055639</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.71649638521242</v>
       </c>
       <c r="N15">
-        <v>24.46982714420536</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.18818405350621</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>40.18419660095527</v>
+        <v>25.64760118919486</v>
       </c>
       <c r="C16">
-        <v>21.64805110994161</v>
+        <v>17.39467081824866</v>
       </c>
       <c r="D16">
-        <v>8.458645866158623</v>
+        <v>11.53875515579272</v>
       </c>
       <c r="E16">
-        <v>6.108016914491425</v>
+        <v>10.63344410806448</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.104679758080972</v>
+        <v>25.76052134885311</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.726854501633131</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.53766324224198</v>
+        <v>5.004653496668772</v>
       </c>
       <c r="K16">
-        <v>32.72314523470206</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>11.09891107337608</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>19.08331748916132</v>
       </c>
       <c r="N16">
-        <v>24.21642148934625</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.06901800611345</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>39.39362511770484</v>
+        <v>25.1162545149024</v>
       </c>
       <c r="C17">
-        <v>21.14781788152195</v>
+        <v>17.05902857674619</v>
       </c>
       <c r="D17">
-        <v>8.379800523351912</v>
+        <v>11.39471436997705</v>
       </c>
       <c r="E17">
-        <v>6.124414893226248</v>
+        <v>10.55669939481325</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.11360549023632</v>
+        <v>25.4421066750483</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.733399332560719</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.522770498470116</v>
+        <v>5.025803109959166</v>
       </c>
       <c r="K17">
-        <v>32.0842438192461</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>10.981150158408</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.68568824918022</v>
       </c>
       <c r="N17">
-        <v>24.06416530082323</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.00301387961474</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>38.94018878686938</v>
+        <v>24.80597182891339</v>
       </c>
       <c r="C18">
-        <v>20.85988734389375</v>
+        <v>16.86319490845607</v>
       </c>
       <c r="D18">
-        <v>8.335328076062227</v>
+        <v>11.31199311850052</v>
       </c>
       <c r="E18">
-        <v>6.134036364364401</v>
+        <v>10.51329449312186</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.118711535741696</v>
+        <v>25.26278738474409</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.7383299579239</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.514331960692862</v>
+        <v>5.038173999614433</v>
       </c>
       <c r="K18">
-        <v>31.71796949170123</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>10.91459512460704</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>18.45358055505953</v>
       </c>
       <c r="N18">
-        <v>23.97767530515333</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.96759723458882</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>38.78685660697487</v>
+        <v>24.70011143353131</v>
       </c>
       <c r="C19">
-        <v>20.76234386439622</v>
+        <v>16.79641098150565</v>
       </c>
       <c r="D19">
-        <v>8.320416408557531</v>
+        <v>11.28400876134</v>
       </c>
       <c r="E19">
-        <v>6.137326480745191</v>
+        <v>10.49872455346418</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.120436215609002</v>
+        <v>25.20273031927595</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.740195741637033</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.511495326017447</v>
+        <v>5.042397650116282</v>
       </c>
       <c r="K19">
-        <v>31.59414056041848</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>10.89225631362316</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>18.37440648004313</v>
       </c>
       <c r="N19">
-        <v>23.94856938559263</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.95603719746029</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>39.47764393184097</v>
+        <v>25.17329958130951</v>
       </c>
       <c r="C20">
-        <v>21.2010855677404</v>
+        <v>17.09504601184581</v>
       </c>
       <c r="D20">
-        <v>8.38810179387313</v>
+        <v>11.41003501218573</v>
       </c>
       <c r="E20">
-        <v>6.122649622874673</v>
+        <v>10.56479269112191</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.112658362127871</v>
+        <v>25.47560678533135</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.732580986550827</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.52434234150775</v>
+        <v>5.023530277151175</v>
       </c>
       <c r="K20">
-        <v>32.15212592824302</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>10.99356245814024</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>18.72836813338557</v>
       </c>
       <c r="N20">
-        <v>24.08025911913467</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.00977507897794</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41.81614652600395</v>
+        <v>26.70759399822802</v>
       </c>
       <c r="C21">
-        <v>22.70099278726425</v>
+        <v>18.06522597153197</v>
       </c>
       <c r="D21">
-        <v>8.62638678636689</v>
+        <v>11.83486222504611</v>
       </c>
       <c r="E21">
-        <v>6.075616916222556</v>
+        <v>10.7955955582562</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.086142011582353</v>
+        <v>26.43807462589427</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.721225049449961</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.569140101525856</v>
+        <v>4.962628122391237</v>
       </c>
       <c r="K21">
-        <v>34.04314984099664</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>11.3485675863493</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>19.87714731598776</v>
       </c>
       <c r="N21">
-        <v>24.53632336246435</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.22119484573765</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>43.363532171154</v>
+        <v>27.66940025129253</v>
       </c>
       <c r="C22">
-        <v>23.71575493709684</v>
+        <v>18.674655526644</v>
       </c>
       <c r="D22">
-        <v>8.791208376174223</v>
+        <v>12.11328979876018</v>
       </c>
       <c r="E22">
-        <v>6.046607778661395</v>
+        <v>10.95306458465767</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.068396392534483</v>
+        <v>27.10098003690275</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.725087726300858</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.599916643965908</v>
+        <v>4.924743289630789</v>
       </c>
       <c r="K22">
-        <v>35.29609714780279</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11.59290549079626</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>20.59814576550952</v>
       </c>
       <c r="N22">
-        <v>24.84618156868662</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.38334054753997</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>42.53546888433959</v>
+        <v>27.15978205596675</v>
       </c>
       <c r="C23">
-        <v>23.17396295638045</v>
+        <v>18.35163805078712</v>
       </c>
       <c r="D23">
-        <v>8.702336336122526</v>
+        <v>11.96463172520064</v>
       </c>
       <c r="E23">
-        <v>6.061930016349365</v>
+        <v>10.86841084494898</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.077914957438561</v>
+        <v>26.74408523069134</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.721949443345714</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.583333100095115</v>
+        <v>4.944783325354859</v>
       </c>
       <c r="K23">
-        <v>34.62544101917943</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11.46126612283541</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>20.21603654600122</v>
       </c>
       <c r="N23">
-        <v>24.67960509641849</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.29454734709358</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>39.43965575561357</v>
+        <v>25.14752447803486</v>
       </c>
       <c r="C24">
-        <v>21.17700435830745</v>
+        <v>17.07877146524778</v>
       </c>
       <c r="D24">
-        <v>8.384346133590489</v>
+        <v>11.4031082662058</v>
       </c>
       <c r="E24">
-        <v>6.123447097557875</v>
+        <v>10.56113148036614</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.113086636393589</v>
+        <v>25.46044972959892</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.732947332883336</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.523631330284015</v>
+        <v>5.024557166349914</v>
       </c>
       <c r="K24">
-        <v>32.12143325306711</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.98794730221571</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>18.70908348151327</v>
       </c>
       <c r="N24">
-        <v>24.07297987334393</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.00671047499864</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>36.14785465686947</v>
+        <v>22.79826828380559</v>
       </c>
       <c r="C25">
-        <v>19.0672921324561</v>
+        <v>15.59947180930674</v>
       </c>
       <c r="D25">
-        <v>8.074494189482943</v>
+        <v>10.80257373063617</v>
       </c>
       <c r="E25">
-        <v>6.197048191664968</v>
+        <v>10.25779591780889</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.15001716953736</v>
+        <v>24.22198832447943</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.788897611206623</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.463987266638672</v>
+        <v>5.118454421865678</v>
       </c>
       <c r="K25">
-        <v>29.46536676185156</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>10.52190096588732</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>17.06904505736954</v>
       </c>
       <c r="N25">
-        <v>23.45939417340186</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.7927184696945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91154558862331</v>
+        <v>14.1720012268567</v>
       </c>
       <c r="C2">
-        <v>14.41861187375453</v>
+        <v>8.275842683704788</v>
       </c>
       <c r="D2">
-        <v>10.36716277914626</v>
+        <v>14.52841793321709</v>
       </c>
       <c r="E2">
-        <v>10.05813726010367</v>
+        <v>15.72943841080991</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.43518981311511</v>
+        <v>31.37917305893154</v>
       </c>
       <c r="H2">
-        <v>8.863363306848633</v>
+        <v>14.95655497564942</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.193989420589801</v>
+        <v>9.243027905734245</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.86144511110339</v>
+        <v>17.56313531573104</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.71030836487437</v>
+        <v>23.11630886565293</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.53349005871634</v>
+        <v>13.5834780133244</v>
       </c>
       <c r="C3">
-        <v>13.56146586519747</v>
+        <v>7.781640683800221</v>
       </c>
       <c r="D3">
-        <v>10.07769838221937</v>
+        <v>14.52137030850117</v>
       </c>
       <c r="E3">
-        <v>9.937284849988179</v>
+        <v>15.75997132645237</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.97860792930882</v>
+        <v>31.4900940657927</v>
       </c>
       <c r="H3">
-        <v>8.932363578342278</v>
+        <v>15.02130489557099</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.249027415419135</v>
+        <v>9.26897574624601</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.99749936147499</v>
+        <v>17.3697679801714</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.69703852343715</v>
+        <v>23.22161923524536</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.63789051892113</v>
+        <v>13.20948019419935</v>
       </c>
       <c r="C4">
-        <v>13.00739497972739</v>
+        <v>7.460540841914348</v>
       </c>
       <c r="D4">
-        <v>9.903255081876049</v>
+        <v>14.52017427488449</v>
       </c>
       <c r="E4">
-        <v>9.870077935960394</v>
+        <v>15.7818265098357</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.73518094122576</v>
+        <v>31.57116720568767</v>
       </c>
       <c r="H4">
-        <v>8.983173076519712</v>
+        <v>15.06416389685467</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.284678146424063</v>
+        <v>9.285872907385082</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.44558965830196</v>
+        <v>17.25214261610362</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.70838418699128</v>
+        <v>23.29271503194428</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.26043161319271</v>
+        <v>13.05409819687535</v>
       </c>
       <c r="C5">
-        <v>12.77468536346012</v>
+        <v>7.325290210596325</v>
       </c>
       <c r="D5">
-        <v>9.833077045345894</v>
+        <v>14.52047561049705</v>
       </c>
       <c r="E5">
-        <v>9.844426831892072</v>
+        <v>15.79151312478434</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.64508315036537</v>
+        <v>31.60744360370208</v>
       </c>
       <c r="H5">
-        <v>9.005901759898929</v>
+        <v>15.08240839995464</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.299667671452393</v>
+        <v>9.293001787516937</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.21548702947893</v>
+        <v>17.20453210823743</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.71767920752897</v>
+        <v>23.32329916653133</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.19699870597068</v>
+        <v>13.02812394192755</v>
       </c>
       <c r="C6">
-        <v>12.73562842635894</v>
+        <v>7.302567611665298</v>
       </c>
       <c r="D6">
-        <v>9.821481355417468</v>
+        <v>14.52057331453197</v>
       </c>
       <c r="E6">
-        <v>9.840271591207774</v>
+        <v>15.79316868372949</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.63066577790871</v>
+        <v>31.61366218685114</v>
       </c>
       <c r="H6">
-        <v>9.009795216964839</v>
+        <v>15.08548491373884</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.302184400532364</v>
+        <v>9.294200232226189</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.17697151990247</v>
+        <v>17.19664723212742</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.71949798413372</v>
+        <v>23.32847482190336</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.63285063599081</v>
+        <v>13.20739641434802</v>
       </c>
       <c r="C7">
-        <v>13.00428449833899</v>
+        <v>7.458734557819917</v>
       </c>
       <c r="D7">
-        <v>9.902304846501476</v>
+        <v>14.52017514383409</v>
       </c>
       <c r="E7">
-        <v>9.869724999848648</v>
+        <v>15.78195398838975</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.73392928223375</v>
+        <v>31.57164336011274</v>
       </c>
       <c r="H7">
-        <v>8.983471539375532</v>
+        <v>15.0644067953184</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.284878438276857</v>
+        <v>9.285968064825489</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.44250715559266</v>
+        <v>17.25149915759078</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.70849093496226</v>
+        <v>23.29312098138158</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.44662329860177</v>
+        <v>13.97181682715822</v>
       </c>
       <c r="C8">
-        <v>14.12886513819018</v>
+        <v>8.10912758803388</v>
       </c>
       <c r="D8">
-        <v>10.26672143169966</v>
+        <v>14.52533897519714</v>
       </c>
       <c r="E8">
-        <v>10.01500242768142</v>
+        <v>15.73932053962108</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.27000522396348</v>
+        <v>31.41471432548978</v>
       </c>
       <c r="H8">
-        <v>8.885340966345414</v>
+        <v>14.97823627613217</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.212577598604451</v>
+        <v>9.251774702387214</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.56811255296575</v>
+        <v>17.49626073671856</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.70155008621797</v>
+        <v>23.15128071974177</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.61379429594054</v>
+        <v>15.3628327029193</v>
       </c>
       <c r="C9">
-        <v>16.11202221673735</v>
+        <v>9.243178334117417</v>
       </c>
       <c r="D9">
-        <v>11.00398621225253</v>
+        <v>14.56023151356515</v>
       </c>
       <c r="E9">
-        <v>10.35625969563831</v>
+        <v>15.6804176622967</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.61964413164264</v>
+        <v>31.21079078126259</v>
       </c>
       <c r="H9">
-        <v>8.764578257514778</v>
+        <v>14.83391544468147</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.085809627951003</v>
+        <v>9.192357688896461</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.5986581991524</v>
+        <v>17.98297678175942</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.85258008323228</v>
+        <v>22.92445689648408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.70760127504401</v>
+        <v>16.31025900064291</v>
       </c>
       <c r="C10">
-        <v>17.43259339907339</v>
+        <v>9.989060742839028</v>
       </c>
       <c r="D10">
-        <v>11.55520712435028</v>
+        <v>14.60083155965695</v>
       </c>
       <c r="E10">
-        <v>10.64230125675192</v>
+        <v>15.65225000368977</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.79737241867712</v>
+        <v>31.12541021345467</v>
       </c>
       <c r="H10">
-        <v>8.726268742870575</v>
+        <v>14.74297626402155</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.002268380021345</v>
+        <v>9.153329336424767</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.12823043150399</v>
+        <v>18.34197599798113</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.07689924359898</v>
+        <v>22.7894576726909</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.61057003546424</v>
+        <v>16.72364505020793</v>
       </c>
       <c r="C11">
-        <v>18.0037982040823</v>
+        <v>10.3093098556072</v>
       </c>
       <c r="D11">
-        <v>11.8072836120533</v>
+        <v>14.62251225696514</v>
       </c>
       <c r="E11">
-        <v>10.78025471061059</v>
+        <v>15.6427238007096</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.37373033272962</v>
+        <v>31.10077081576105</v>
       </c>
       <c r="H11">
-        <v>8.721317432940873</v>
+        <v>14.70489632858358</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.966464060588223</v>
+        <v>9.136572415615717</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.8044526605163</v>
+        <v>18.50503134485161</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.20611747004875</v>
+        <v>22.73498991452633</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.94547260581616</v>
+        <v>16.87755567761319</v>
       </c>
       <c r="C12">
-        <v>18.21587145888259</v>
+        <v>10.42783504833598</v>
       </c>
       <c r="D12">
-        <v>11.90287612375777</v>
+        <v>14.63117985493701</v>
       </c>
       <c r="E12">
-        <v>10.83363065113429</v>
+        <v>15.63958947951148</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.5977993545422</v>
+        <v>31.09349666439295</v>
       </c>
       <c r="H12">
-        <v>8.721367642611343</v>
+        <v>14.69095054834205</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.953233710913641</v>
+        <v>9.130369952665648</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.05540528746622</v>
+        <v>18.56669258477967</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.25914851487296</v>
+        <v>22.71536893233182</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.87365664162607</v>
+        <v>16.84452663563855</v>
       </c>
       <c r="C13">
-        <v>18.17038543504553</v>
+        <v>10.40243072292921</v>
       </c>
       <c r="D13">
-        <v>11.88228324117266</v>
+        <v>14.62929285385334</v>
       </c>
       <c r="E13">
-        <v>10.82208450925477</v>
+        <v>15.64024346976322</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.54928395261093</v>
+        <v>31.09497162687714</v>
       </c>
       <c r="H13">
-        <v>8.721269083203746</v>
+        <v>14.69393290702906</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.956068313272096</v>
+        <v>9.131699409306854</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.00158457822033</v>
+        <v>18.55341722961755</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.24754213001161</v>
+        <v>22.71954987676436</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.63826308233876</v>
+        <v>16.73636058386495</v>
       </c>
       <c r="C14">
-        <v>18.02133023654522</v>
+        <v>10.31911605402478</v>
       </c>
       <c r="D14">
-        <v>11.81514560053759</v>
+        <v>14.62321620069052</v>
       </c>
       <c r="E14">
-        <v>10.78462315908947</v>
+        <v>15.64245645652563</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.39204826243743</v>
+        <v>31.1001310826887</v>
       </c>
       <c r="H14">
-        <v>8.721282217468893</v>
+        <v>14.7037394881279</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.96536894596371</v>
+        <v>9.136059271129335</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.82520082811699</v>
+        <v>18.5101062105395</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.21039717068655</v>
+        <v>22.73335551220439</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.49316464534751</v>
+        <v>16.66976062482206</v>
       </c>
       <c r="C15">
-        <v>17.92947946247744</v>
+        <v>10.26772566172737</v>
       </c>
       <c r="D15">
-        <v>11.77403822023031</v>
+        <v>14.6195535327537</v>
       </c>
       <c r="E15">
-        <v>10.76182522507761</v>
+        <v>15.64387358554286</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.29649322650217</v>
+        <v>31.10355956900263</v>
       </c>
       <c r="H15">
-        <v>8.721544925580469</v>
+        <v>14.7098081056286</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.971108938307784</v>
+        <v>9.138748426345275</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.71649638521242</v>
+        <v>18.4835645883816</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.18818405350621</v>
+        <v>22.741942896128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.64760118919486</v>
+        <v>16.282880273344</v>
       </c>
       <c r="C16">
-        <v>17.39467081824866</v>
+        <v>9.967747660055954</v>
       </c>
       <c r="D16">
-        <v>11.53875515579272</v>
+        <v>14.59947894951751</v>
       </c>
       <c r="E16">
-        <v>10.63344410806448</v>
+        <v>15.65293874612464</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.76052134885311</v>
+        <v>31.12730747297823</v>
       </c>
       <c r="H16">
-        <v>8.726854501633131</v>
+        <v>14.74553117030475</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.004653496668772</v>
+        <v>9.154444475009738</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.08331748916132</v>
+        <v>18.33131072436046</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.06901800611345</v>
+        <v>22.79315753703516</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.1162545149024</v>
+        <v>16.04095825423234</v>
       </c>
       <c r="C17">
-        <v>17.05902857674619</v>
+        <v>9.778834703330833</v>
       </c>
       <c r="D17">
-        <v>11.39471436997705</v>
+        <v>14.5879835458196</v>
       </c>
       <c r="E17">
-        <v>10.55669939481325</v>
+        <v>15.65934219929609</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.4421066750483</v>
+        <v>31.14552395264338</v>
       </c>
       <c r="H17">
-        <v>8.733399332560719</v>
+        <v>14.76828939639345</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.025803109959166</v>
+        <v>9.16432864004685</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.68568824918022</v>
+        <v>18.23780841622799</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.00301387961474</v>
+        <v>22.8263590820545</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.80597182891339</v>
+        <v>15.90015908375217</v>
       </c>
       <c r="C18">
-        <v>16.86319490845607</v>
+        <v>9.66838337610473</v>
       </c>
       <c r="D18">
-        <v>11.31199311850052</v>
+        <v>14.58167426324006</v>
       </c>
       <c r="E18">
-        <v>10.51329449312186</v>
+        <v>15.66333471504098</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.26278738474409</v>
+        <v>31.15733750254931</v>
       </c>
       <c r="H18">
-        <v>8.7383299579239</v>
+        <v>14.78168879789953</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.038173999614433</v>
+        <v>9.17010764104168</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.45358055505953</v>
+        <v>18.18400713838987</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.96759723458882</v>
+        <v>22.8461089777871</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.70011143353131</v>
+        <v>15.85220641718026</v>
       </c>
       <c r="C19">
-        <v>16.79641098150565</v>
+        <v>9.630678641300911</v>
       </c>
       <c r="D19">
-        <v>11.28400876134</v>
+        <v>14.57959013574701</v>
       </c>
       <c r="E19">
-        <v>10.49872455346418</v>
+        <v>15.66473964244063</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.20273031927595</v>
+        <v>31.1615663442394</v>
       </c>
       <c r="H19">
-        <v>8.740195741637033</v>
+        <v>14.78627871629042</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.042397650116282</v>
+        <v>9.172080449222793</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.37440648004313</v>
+        <v>18.16578876934175</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.95603719746029</v>
+        <v>22.85290795638659</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.17329958130951</v>
+        <v>16.06688300531036</v>
       </c>
       <c r="C20">
-        <v>17.09504601184581</v>
+        <v>9.799130493643263</v>
       </c>
       <c r="D20">
-        <v>11.41003501218573</v>
+        <v>14.58917596537811</v>
       </c>
       <c r="E20">
-        <v>10.56479269112191</v>
+        <v>15.65862851416735</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.47560678533135</v>
+        <v>31.14344640559471</v>
       </c>
       <c r="H20">
-        <v>8.732580986550827</v>
+        <v>14.76583470547037</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.023530277151175</v>
+        <v>9.163266739294491</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.72836813338557</v>
+        <v>18.24776444061599</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.00977507897794</v>
+        <v>22.8227570668434</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.70759399822802</v>
+        <v>16.76820365479866</v>
       </c>
       <c r="C21">
-        <v>18.06522597153197</v>
+        <v>10.34366215285264</v>
       </c>
       <c r="D21">
-        <v>11.83486222504611</v>
+        <v>14.62498867835683</v>
       </c>
       <c r="E21">
-        <v>10.7955955582562</v>
+        <v>15.64179360874416</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.43807462589427</v>
+        <v>31.09855971654946</v>
       </c>
       <c r="H21">
-        <v>8.721225049449961</v>
+        <v>14.70084617534976</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.962628122391237</v>
+        <v>9.134774795575645</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.87714731598776</v>
+        <v>18.52283036869062</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.22119484573765</v>
+        <v>22.72927314425085</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.66940025129253</v>
+        <v>17.21119387080197</v>
       </c>
       <c r="C22">
-        <v>18.674655526644</v>
+        <v>10.68353767910769</v>
       </c>
       <c r="D22">
-        <v>12.11328979876018</v>
+        <v>14.65105922207674</v>
       </c>
       <c r="E22">
-        <v>10.95306458465767</v>
+        <v>15.63354830846863</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.10098003690275</v>
+        <v>31.08121416611068</v>
       </c>
       <c r="H22">
-        <v>8.725087726300858</v>
+        <v>14.66113742469393</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.924743289630789</v>
+        <v>9.116987114552806</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.59814576550952</v>
+        <v>18.70208922337925</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.38334054753997</v>
+        <v>22.6740353730383</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.15978205596675</v>
+        <v>16.97619613898544</v>
       </c>
       <c r="C23">
-        <v>18.35163805078712</v>
+        <v>10.5036054849805</v>
       </c>
       <c r="D23">
-        <v>11.96463172520064</v>
+        <v>14.63690257130625</v>
       </c>
       <c r="E23">
-        <v>10.86841084494898</v>
+        <v>15.63769663189487</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.74408523069134</v>
+        <v>31.08937053851333</v>
       </c>
       <c r="H23">
-        <v>8.721949443345714</v>
+        <v>14.68207728611629</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.944783325354859</v>
+        <v>9.126404599929314</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.21603654600122</v>
+        <v>18.60647777544419</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.29454734709358</v>
+        <v>22.70297866195288</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.14752447803486</v>
+        <v>16.05516775951233</v>
       </c>
       <c r="C24">
-        <v>17.07877146524778</v>
+        <v>9.789960506187356</v>
       </c>
       <c r="D24">
-        <v>11.4031082662058</v>
+        <v>14.58863593902963</v>
       </c>
       <c r="E24">
-        <v>10.56113148036614</v>
+        <v>15.65895020223435</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.46044972959892</v>
+        <v>31.14438148962172</v>
       </c>
       <c r="H24">
-        <v>8.732947332883336</v>
+        <v>14.76694348887379</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.024557166349914</v>
+        <v>9.163746524113312</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.70908348151327</v>
+        <v>18.24326346024303</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.00671047499864</v>
+        <v>22.82438347661558</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.79826828380559</v>
+        <v>14.99907033689091</v>
       </c>
       <c r="C25">
-        <v>15.59947180930674</v>
+        <v>8.951663461500655</v>
       </c>
       <c r="D25">
-        <v>10.80257373063617</v>
+        <v>14.54815256744984</v>
       </c>
       <c r="E25">
-        <v>10.25779591780889</v>
+        <v>15.69370221869306</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.22198832447943</v>
+        <v>31.25471745697357</v>
       </c>
       <c r="H25">
-        <v>8.788897611206623</v>
+        <v>14.87031192619341</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.118454421865678</v>
+        <v>9.207617180919911</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.06904505736954</v>
+        <v>17.85086493789654</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.7927184696945</v>
+        <v>22.98028655481615</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.1720012268567</v>
+        <v>20.91154558862323</v>
       </c>
       <c r="C2">
-        <v>8.275842683704788</v>
+        <v>14.41861187375448</v>
       </c>
       <c r="D2">
-        <v>14.52841793321709</v>
+        <v>10.36716277914616</v>
       </c>
       <c r="E2">
-        <v>15.72943841080991</v>
+        <v>10.05813726010359</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>31.37917305893154</v>
+        <v>23.43518981311514</v>
       </c>
       <c r="H2">
-        <v>14.95655497564942</v>
+        <v>8.863363306848637</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.243027905734245</v>
+        <v>5.193989420589832</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.56313531573104</v>
+        <v>15.86144511110338</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.11630886565293</v>
+        <v>14.71030836487442</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.5834780133244</v>
+        <v>19.53349005871634</v>
       </c>
       <c r="C3">
-        <v>7.781640683800221</v>
+        <v>13.56146586519744</v>
       </c>
       <c r="D3">
-        <v>14.52137030850117</v>
+        <v>10.07769838221938</v>
       </c>
       <c r="E3">
-        <v>15.75997132645237</v>
+        <v>9.937284849988218</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>31.4900940657927</v>
+        <v>22.97860792930894</v>
       </c>
       <c r="H3">
-        <v>15.02130489557099</v>
+        <v>8.932363578342278</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.26897574624601</v>
+        <v>5.249027415419224</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.3697679801714</v>
+        <v>14.997499361475</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.22161923524536</v>
+        <v>14.69703852343718</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.20948019419935</v>
+        <v>18.63789051892115</v>
       </c>
       <c r="C4">
-        <v>7.460540841914348</v>
+        <v>13.00739497972719</v>
       </c>
       <c r="D4">
-        <v>14.52017427488449</v>
+        <v>9.903255081876068</v>
       </c>
       <c r="E4">
-        <v>15.7818265098357</v>
+        <v>9.870077935960481</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.57116720568767</v>
+        <v>22.73518094122607</v>
       </c>
       <c r="H4">
-        <v>15.06416389685467</v>
+        <v>8.983173076519707</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.285872907385082</v>
+        <v>5.284678146424122</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.25214261610362</v>
+        <v>14.44558965830202</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.29271503194428</v>
+        <v>14.70838418699135</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.05409819687535</v>
+        <v>18.26043161319269</v>
       </c>
       <c r="C5">
-        <v>7.325290210596325</v>
+        <v>12.77468536346012</v>
       </c>
       <c r="D5">
-        <v>14.52047561049705</v>
+        <v>9.833077045345876</v>
       </c>
       <c r="E5">
-        <v>15.79151312478434</v>
+        <v>9.844426831892083</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.60744360370208</v>
+        <v>22.64508315036565</v>
       </c>
       <c r="H5">
-        <v>15.08240839995464</v>
+        <v>9.00590175989883</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.293001787516937</v>
+        <v>5.29966767145239</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.20453210823743</v>
+        <v>14.21548702947895</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.32329916653133</v>
+        <v>14.71767920752901</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.02812394192755</v>
+        <v>18.19699870597073</v>
       </c>
       <c r="C6">
-        <v>7.302567611665298</v>
+        <v>12.73562842635881</v>
       </c>
       <c r="D6">
-        <v>14.52057331453197</v>
+        <v>9.821481355417314</v>
       </c>
       <c r="E6">
-        <v>15.79316868372949</v>
+        <v>9.840271591207683</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.61366218685114</v>
+        <v>22.63066577790863</v>
       </c>
       <c r="H6">
-        <v>15.08548491373884</v>
+        <v>9.009795216964779</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.294200232226189</v>
+        <v>5.302184400532366</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.19664723212742</v>
+        <v>14.17697151990245</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.32847482190336</v>
+        <v>14.71949798413364</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.20739641434802</v>
+        <v>18.63285063599079</v>
       </c>
       <c r="C7">
-        <v>7.458734557819917</v>
+        <v>13.00428449833893</v>
       </c>
       <c r="D7">
-        <v>14.52017514383409</v>
+        <v>9.902304846501634</v>
       </c>
       <c r="E7">
-        <v>15.78195398838975</v>
+        <v>9.869724999848687</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.57164336011274</v>
+        <v>22.73392928223373</v>
       </c>
       <c r="H7">
-        <v>15.0644067953184</v>
+        <v>8.983471539375586</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.285968064825489</v>
+        <v>5.284878438276793</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.25149915759078</v>
+        <v>14.44250715559269</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.29312098138158</v>
+        <v>14.70849093496231</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.97181682715822</v>
+        <v>20.44662329860178</v>
       </c>
       <c r="C8">
-        <v>8.10912758803388</v>
+        <v>14.12886513819002</v>
       </c>
       <c r="D8">
-        <v>14.52533897519714</v>
+        <v>10.26672143169966</v>
       </c>
       <c r="E8">
-        <v>15.73932053962108</v>
+        <v>10.01500242768137</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>31.41471432548978</v>
+        <v>23.27000522396381</v>
       </c>
       <c r="H8">
-        <v>14.97823627613217</v>
+        <v>8.885340966345414</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.251774702387214</v>
+        <v>5.212577598604487</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.49626073671856</v>
+        <v>15.56811255296575</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.15128071974177</v>
+        <v>14.7015500862181</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.3628327029193</v>
+        <v>23.61379429594058</v>
       </c>
       <c r="C9">
-        <v>9.243178334117417</v>
+        <v>16.11202221673733</v>
       </c>
       <c r="D9">
-        <v>14.56023151356515</v>
+        <v>11.00398621225258</v>
       </c>
       <c r="E9">
-        <v>15.6804176622967</v>
+        <v>10.35625969563826</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>31.21079078126259</v>
+        <v>24.61964413164246</v>
       </c>
       <c r="H9">
-        <v>14.83391544468147</v>
+        <v>8.764578257514664</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.192357688896461</v>
+        <v>5.085809627950885</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.98297678175942</v>
+        <v>17.59865819915239</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.92445689648408</v>
+        <v>14.85258008323214</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.31025900064291</v>
+        <v>25.70760127504403</v>
       </c>
       <c r="C10">
-        <v>9.989060742839028</v>
+        <v>17.43259339907348</v>
       </c>
       <c r="D10">
-        <v>14.60083155965695</v>
+        <v>11.55520712435034</v>
       </c>
       <c r="E10">
-        <v>15.65225000368977</v>
+        <v>10.642301256752</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>31.12541021345467</v>
+        <v>25.79737241867704</v>
       </c>
       <c r="H10">
-        <v>14.74297626402155</v>
+        <v>8.726268742870575</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.153329336424767</v>
+        <v>5.002268380021377</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.34197599798113</v>
+        <v>19.128230431504</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.7894576726909</v>
+        <v>15.07689924359894</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.72364505020793</v>
+        <v>26.61057003546421</v>
       </c>
       <c r="C11">
-        <v>10.3093098556072</v>
+        <v>18.00379820408228</v>
       </c>
       <c r="D11">
-        <v>14.62251225696514</v>
+        <v>11.80728361205324</v>
       </c>
       <c r="E11">
-        <v>15.6427238007096</v>
+        <v>10.78025471061052</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>31.10077081576105</v>
+        <v>26.37373033272957</v>
       </c>
       <c r="H11">
-        <v>14.70489632858358</v>
+        <v>8.721317432940841</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.136572415615717</v>
+        <v>4.966464060588188</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.50503134485161</v>
+        <v>19.80445266051628</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.73498991452633</v>
+        <v>15.20611747004873</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.87755567761319</v>
+        <v>26.94547260581617</v>
       </c>
       <c r="C12">
-        <v>10.42783504833598</v>
+        <v>18.21587145888254</v>
       </c>
       <c r="D12">
-        <v>14.63117985493701</v>
+        <v>11.90287612375776</v>
       </c>
       <c r="E12">
-        <v>15.63958947951148</v>
+        <v>10.83363065113431</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31.09349666439295</v>
+        <v>26.59779935454232</v>
       </c>
       <c r="H12">
-        <v>14.69095054834205</v>
+        <v>8.721367642611362</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.130369952665648</v>
+        <v>4.953233710913636</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.56669258477967</v>
+        <v>20.05540528746619</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.71536893233182</v>
+        <v>15.25914851487303</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.84452663563855</v>
+        <v>26.87365664162606</v>
       </c>
       <c r="C13">
-        <v>10.40243072292921</v>
+        <v>18.17038543504538</v>
       </c>
       <c r="D13">
-        <v>14.62929285385334</v>
+        <v>11.88228324117266</v>
       </c>
       <c r="E13">
-        <v>15.64024346976322</v>
+        <v>10.82208450925478</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>31.09497162687714</v>
+        <v>26.54928395261112</v>
       </c>
       <c r="H13">
-        <v>14.69393290702906</v>
+        <v>8.721269083203808</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.131699409306854</v>
+        <v>4.956068313272095</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.55341722961755</v>
+        <v>20.0015845782203</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.71954987676436</v>
+        <v>15.24754213001169</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.73636058386495</v>
+        <v>26.63826308233881</v>
       </c>
       <c r="C14">
-        <v>10.31911605402478</v>
+        <v>18.0213302365451</v>
       </c>
       <c r="D14">
-        <v>14.62321620069052</v>
+        <v>11.81514560053758</v>
       </c>
       <c r="E14">
-        <v>15.64245645652563</v>
+        <v>10.78462315908946</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>31.1001310826887</v>
+        <v>26.39204826243734</v>
       </c>
       <c r="H14">
-        <v>14.7037394881279</v>
+        <v>8.721282217468836</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.136059271129335</v>
+        <v>4.965368945963769</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.5101062105395</v>
+        <v>19.825200828117</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.73335551220439</v>
+        <v>15.21039717068647</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.66976062482206</v>
+        <v>26.49316464534748</v>
       </c>
       <c r="C15">
-        <v>10.26772566172737</v>
+        <v>17.92947946247745</v>
       </c>
       <c r="D15">
-        <v>14.6195535327537</v>
+        <v>11.77403822023033</v>
       </c>
       <c r="E15">
-        <v>15.64387358554286</v>
+        <v>10.76182522507758</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>31.10355956900263</v>
+        <v>26.29649322650218</v>
       </c>
       <c r="H15">
-        <v>14.7098081056286</v>
+        <v>8.721544925580476</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.138748426345275</v>
+        <v>4.97110893830772</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.4835645883816</v>
+        <v>19.71649638521242</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.741942896128</v>
+        <v>15.18818405350622</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.282880273344</v>
+        <v>25.64760118919486</v>
       </c>
       <c r="C16">
-        <v>9.967747660055954</v>
+        <v>17.39467081824871</v>
       </c>
       <c r="D16">
-        <v>14.59947894951751</v>
+        <v>11.53875515579274</v>
       </c>
       <c r="E16">
-        <v>15.65293874612464</v>
+        <v>10.63344410806452</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>31.12730747297823</v>
+        <v>25.76052134885309</v>
       </c>
       <c r="H16">
-        <v>14.74553117030475</v>
+        <v>8.726854501633131</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.154444475009738</v>
+        <v>5.004653496668774</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.33131072436046</v>
+        <v>19.08331748916132</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.79315753703516</v>
+        <v>15.06901800611342</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.04095825423234</v>
+        <v>25.11625451490234</v>
       </c>
       <c r="C17">
-        <v>9.778834703330833</v>
+        <v>17.05902857674623</v>
       </c>
       <c r="D17">
-        <v>14.5879835458196</v>
+        <v>11.39471436997708</v>
       </c>
       <c r="E17">
-        <v>15.65934219929609</v>
+        <v>10.55669939481325</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>31.14552395264338</v>
+        <v>25.44210667504833</v>
       </c>
       <c r="H17">
-        <v>14.76828939639345</v>
+        <v>8.733399332560703</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.16432864004685</v>
+        <v>5.025803109959167</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.23780841622799</v>
+        <v>18.6856882491802</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.8263590820545</v>
+        <v>15.00301387961477</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.90015908375217</v>
+        <v>24.80597182891341</v>
       </c>
       <c r="C18">
-        <v>9.66838337610473</v>
+        <v>16.86319490845601</v>
       </c>
       <c r="D18">
-        <v>14.58167426324006</v>
+        <v>11.31199311850045</v>
       </c>
       <c r="E18">
-        <v>15.66333471504098</v>
+        <v>10.51329449312178</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>31.15733750254931</v>
+        <v>25.26278738474419</v>
       </c>
       <c r="H18">
-        <v>14.78168879789953</v>
+        <v>8.738329957923806</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.17010764104168</v>
+        <v>5.038173999614402</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.18400713838987</v>
+        <v>18.45358055505955</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.8461089777871</v>
+        <v>14.96759723458886</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.85220641718026</v>
+        <v>24.70011143353134</v>
       </c>
       <c r="C19">
-        <v>9.630678641300911</v>
+        <v>16.79641098150571</v>
       </c>
       <c r="D19">
-        <v>14.57959013574701</v>
+        <v>11.28400876134002</v>
       </c>
       <c r="E19">
-        <v>15.66473964244063</v>
+        <v>10.49872455346419</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>31.1615663442394</v>
+        <v>25.20273031927593</v>
       </c>
       <c r="H19">
-        <v>14.78627871629042</v>
+        <v>8.740195741637001</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.172080449222793</v>
+        <v>5.042397650116282</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.16578876934175</v>
+        <v>18.37440648004315</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.85290795638659</v>
+        <v>14.95603719746025</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.06688300531036</v>
+        <v>25.17329958130944</v>
       </c>
       <c r="C20">
-        <v>9.799130493643263</v>
+        <v>17.09504601184588</v>
       </c>
       <c r="D20">
-        <v>14.58917596537811</v>
+        <v>11.41003501218578</v>
       </c>
       <c r="E20">
-        <v>15.65862851416735</v>
+        <v>10.56479269112193</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>31.14344640559471</v>
+        <v>25.47560678533142</v>
       </c>
       <c r="H20">
-        <v>14.76583470547037</v>
+        <v>8.732580986550827</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.163266739294491</v>
+        <v>5.023530277151172</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.24776444061599</v>
+        <v>18.72836813338554</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.8227570668434</v>
+        <v>15.00977507897799</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.76820365479866</v>
+        <v>26.70759399822802</v>
       </c>
       <c r="C21">
-        <v>10.34366215285264</v>
+        <v>18.06522597153202</v>
       </c>
       <c r="D21">
-        <v>14.62498867835683</v>
+        <v>11.8348622250461</v>
       </c>
       <c r="E21">
-        <v>15.64179360874416</v>
+        <v>10.79559555825623</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>31.09855971654946</v>
+        <v>26.43807462589433</v>
       </c>
       <c r="H21">
-        <v>14.70084617534976</v>
+        <v>8.721225049450011</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.134774795575645</v>
+        <v>4.96262812239133</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.52283036869062</v>
+        <v>19.87714731598775</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.72927314425085</v>
+        <v>15.22119484573768</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.21119387080197</v>
+        <v>27.66940025129247</v>
       </c>
       <c r="C22">
-        <v>10.68353767910769</v>
+        <v>18.67465552664394</v>
       </c>
       <c r="D22">
-        <v>14.65105922207674</v>
+        <v>12.1132897987602</v>
       </c>
       <c r="E22">
-        <v>15.63354830846863</v>
+        <v>10.95306458465772</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.08121416611068</v>
+        <v>27.1009800369029</v>
       </c>
       <c r="H22">
-        <v>14.66113742469393</v>
+        <v>8.725087726300858</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.116987114552806</v>
+        <v>4.924743289630813</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.70208922337925</v>
+        <v>20.59814576550945</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.6740353730383</v>
+        <v>15.38334054754009</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.97619613898544</v>
+        <v>27.15978205596675</v>
       </c>
       <c r="C23">
-        <v>10.5036054849805</v>
+        <v>18.35163805078715</v>
       </c>
       <c r="D23">
-        <v>14.63690257130625</v>
+        <v>11.96463172520061</v>
       </c>
       <c r="E23">
-        <v>15.63769663189487</v>
+        <v>10.86841084494894</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.08937053851333</v>
+        <v>26.74408523069124</v>
       </c>
       <c r="H23">
-        <v>14.68207728611629</v>
+        <v>8.721949443345618</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.126404599929314</v>
+        <v>4.944783325354884</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.60647777544419</v>
+        <v>20.21603654600124</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.70297866195288</v>
+        <v>15.29454734709352</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.05516775951233</v>
+        <v>25.14752447803485</v>
       </c>
       <c r="C24">
-        <v>9.789960506187356</v>
+        <v>17.07877146524776</v>
       </c>
       <c r="D24">
-        <v>14.58863593902963</v>
+        <v>11.40310826620579</v>
       </c>
       <c r="E24">
-        <v>15.65895020223435</v>
+        <v>10.56113148036609</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>31.14438148962172</v>
+        <v>25.4604497295989</v>
       </c>
       <c r="H24">
-        <v>14.76694348887379</v>
+        <v>8.732947332883317</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.163746524113312</v>
+        <v>5.024557166349855</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.24326346024303</v>
+        <v>18.70908348151327</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.82438347661558</v>
+        <v>15.00671047499867</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.99907033689091</v>
+        <v>22.79826828380558</v>
       </c>
       <c r="C25">
-        <v>8.951663461500655</v>
+        <v>15.59947180930677</v>
       </c>
       <c r="D25">
-        <v>14.54815256744984</v>
+        <v>10.80257373063617</v>
       </c>
       <c r="E25">
-        <v>15.69370221869306</v>
+        <v>10.25779591780885</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>31.25471745697357</v>
+        <v>24.22198832447949</v>
       </c>
       <c r="H25">
-        <v>14.87031192619341</v>
+        <v>8.78889761120662</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.207617180919911</v>
+        <v>5.118454421865647</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.85086493789654</v>
+        <v>17.06904505736954</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>22.98028655481615</v>
+        <v>14.79271846969454</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.91154558862323</v>
+        <v>15.74120178110267</v>
       </c>
       <c r="C2">
-        <v>14.41861187375448</v>
+        <v>6.762948513701502</v>
       </c>
       <c r="D2">
-        <v>10.36716277914616</v>
+        <v>8.913487521413389</v>
       </c>
       <c r="E2">
-        <v>10.05813726010359</v>
+        <v>7.543801421207847</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.43518981311514</v>
+        <v>43.09371204037104</v>
       </c>
       <c r="H2">
-        <v>8.863363306848637</v>
+        <v>4.072630579408949</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.458081790519469</v>
       </c>
       <c r="J2">
-        <v>5.193989420589832</v>
+        <v>13.94844141389264</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>22.52458358259287</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4.391079768572284</v>
       </c>
       <c r="M2">
-        <v>15.86144511110338</v>
+        <v>12.75613149594137</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.981955094892745</v>
       </c>
       <c r="O2">
-        <v>14.71030836487442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>15.3501108929642</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.53349005871634</v>
+        <v>14.8486543657127</v>
       </c>
       <c r="C3">
-        <v>13.56146586519744</v>
+        <v>6.304839084886911</v>
       </c>
       <c r="D3">
-        <v>10.07769838221938</v>
+        <v>8.621148020488329</v>
       </c>
       <c r="E3">
-        <v>9.937284849988218</v>
+        <v>7.334935246416943</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.97860792930894</v>
+        <v>42.08798928523269</v>
       </c>
       <c r="H3">
-        <v>8.932363578342278</v>
+        <v>4.326628047947708</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.655224525399086</v>
       </c>
       <c r="J3">
-        <v>5.249027415419224</v>
+        <v>13.82683373098954</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>22.28299486942406</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4.311677355688872</v>
       </c>
       <c r="M3">
-        <v>14.997499361475</v>
+        <v>12.08435830968889</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.741099267077685</v>
       </c>
       <c r="O3">
-        <v>14.69703852343718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>15.45828687746803</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.63789051892115</v>
+        <v>14.27269536866803</v>
       </c>
       <c r="C4">
-        <v>13.00739497972719</v>
+        <v>6.011075197816727</v>
       </c>
       <c r="D4">
-        <v>9.903255081876068</v>
+        <v>8.438200408665809</v>
       </c>
       <c r="E4">
-        <v>9.870077935960481</v>
+        <v>7.202732745585378</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>22.73518094122607</v>
+        <v>41.46611498110851</v>
       </c>
       <c r="H4">
-        <v>8.983173076519707</v>
+        <v>4.488160889792453</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.781129918520342</v>
       </c>
       <c r="J4">
-        <v>5.284678146424122</v>
+        <v>13.75394532406901</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>22.13539452444405</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>4.261260666240927</v>
       </c>
       <c r="M4">
-        <v>14.44558965830202</v>
+        <v>11.65486983467207</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.590330414243864</v>
       </c>
       <c r="O4">
-        <v>14.70838418699135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>15.52544481346126</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.26043161319269</v>
+        <v>14.02524978927517</v>
       </c>
       <c r="C5">
-        <v>12.77468536346012</v>
+        <v>5.894198291367579</v>
       </c>
       <c r="D5">
-        <v>9.833077045345876</v>
+        <v>8.362154511389463</v>
       </c>
       <c r="E5">
-        <v>9.844426831892083</v>
+        <v>7.146773494812697</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>22.64508315036565</v>
+        <v>41.19254357707847</v>
       </c>
       <c r="H5">
-        <v>9.00590175989883</v>
+        <v>4.55587338911443</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.836054486841639</v>
       </c>
       <c r="J5">
-        <v>5.29966767145239</v>
+        <v>13.72101408597064</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>22.06712964323435</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>4.240069732776982</v>
       </c>
       <c r="M5">
-        <v>14.21548702947895</v>
+        <v>11.47410625672079</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.528913012488288</v>
       </c>
       <c r="O5">
-        <v>14.71767920752901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>15.55073689825518</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.19699870597073</v>
+        <v>13.97656370286757</v>
       </c>
       <c r="C6">
-        <v>12.73562842635881</v>
+        <v>5.881929515381346</v>
       </c>
       <c r="D6">
-        <v>9.821481355417314</v>
+        <v>8.348604459374744</v>
       </c>
       <c r="E6">
-        <v>9.840271591207683</v>
+        <v>7.136051414617387</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>22.63066577790863</v>
+        <v>41.12345824714873</v>
       </c>
       <c r="H6">
-        <v>9.009795216964779</v>
+        <v>4.567766547069292</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.848272489862359</v>
       </c>
       <c r="J6">
-        <v>5.302184400532366</v>
+        <v>13.71107199395305</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>22.04562741427148</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.236257522782034</v>
       </c>
       <c r="M6">
-        <v>14.17697151990245</v>
+        <v>11.44184181383936</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.519516036549208</v>
       </c>
       <c r="O6">
-        <v>14.71949798413364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>15.55218218696404</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.63285063599079</v>
+        <v>14.25013878184654</v>
       </c>
       <c r="C7">
-        <v>13.00428449833893</v>
+        <v>6.029018482782343</v>
       </c>
       <c r="D7">
-        <v>9.902304846501634</v>
+        <v>8.434807569070877</v>
       </c>
       <c r="E7">
-        <v>9.869724999848687</v>
+        <v>7.198274788755735</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>22.73392928223373</v>
+        <v>41.3984643036529</v>
       </c>
       <c r="H7">
-        <v>8.983471539375586</v>
+        <v>4.490583856382651</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.789883082246723</v>
       </c>
       <c r="J7">
-        <v>5.284878438276793</v>
+        <v>13.74126024509651</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>22.10679473660927</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>4.26025762276114</v>
       </c>
       <c r="M7">
-        <v>14.44250715559269</v>
+        <v>11.64705873882349</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.591779770869205</v>
       </c>
       <c r="O7">
-        <v>14.70849093496231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>15.5182800482368</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.44662329860178</v>
+        <v>15.41553058238561</v>
       </c>
       <c r="C8">
-        <v>14.12886513819002</v>
+        <v>6.631264188662914</v>
       </c>
       <c r="D8">
-        <v>10.26672143169966</v>
+        <v>8.810455330046301</v>
       </c>
       <c r="E8">
-        <v>10.01500242768137</v>
+        <v>7.467908773698828</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.27000522396381</v>
+        <v>42.66590516942579</v>
       </c>
       <c r="H8">
-        <v>8.885340966345414</v>
+        <v>4.160978463428902</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.535238270521018</v>
       </c>
       <c r="J8">
-        <v>5.212577598604487</v>
+        <v>13.89021251528108</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>22.4051443331556</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4.363139320067381</v>
       </c>
       <c r="M8">
-        <v>15.56811255296575</v>
+        <v>12.52139784676728</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.902469171897297</v>
       </c>
       <c r="O8">
-        <v>14.7015500862181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>15.37754726955315</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.61379429594058</v>
+        <v>17.5050833041351</v>
       </c>
       <c r="C9">
-        <v>16.11202221673733</v>
+        <v>7.68344537846427</v>
       </c>
       <c r="D9">
-        <v>11.00398621225258</v>
+        <v>9.520066783559614</v>
       </c>
       <c r="E9">
-        <v>10.35625969563826</v>
+        <v>7.970298837924555</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>24.61964413164246</v>
+        <v>45.21626580539173</v>
       </c>
       <c r="H9">
-        <v>8.764578257514664</v>
+        <v>3.555258003193775</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.060494092247047</v>
       </c>
       <c r="J9">
-        <v>5.085809627950885</v>
+        <v>14.21765949366023</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.04343612523227</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>4.553284946162959</v>
       </c>
       <c r="M9">
-        <v>17.59865819915239</v>
+        <v>14.10372164805223</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.482500766107608</v>
       </c>
       <c r="O9">
-        <v>14.85258008323214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>15.12020167450067</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.70760127504403</v>
+        <v>18.83126350534939</v>
       </c>
       <c r="C10">
-        <v>17.43259339907348</v>
+        <v>8.412593415410901</v>
       </c>
       <c r="D10">
-        <v>11.55520712435034</v>
+        <v>9.955354381601593</v>
       </c>
       <c r="E10">
-        <v>10.642301256752</v>
+        <v>8.226350913516553</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.79737241867704</v>
+        <v>46.73433116365071</v>
       </c>
       <c r="H10">
-        <v>8.726268742870575</v>
+        <v>3.163310818098362</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.746400189901784</v>
       </c>
       <c r="J10">
-        <v>5.002268380021377</v>
+        <v>14.40315500536748</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.3869943545355</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>4.679243586421652</v>
       </c>
       <c r="M10">
-        <v>19.128230431504</v>
+        <v>15.13751106040242</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.804937771392993</v>
       </c>
       <c r="O10">
-        <v>15.07689924359894</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>14.89908240513452</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.61057003546421</v>
+        <v>18.88463491366447</v>
       </c>
       <c r="C11">
-        <v>18.00379820408228</v>
+        <v>8.81193220718446</v>
       </c>
       <c r="D11">
-        <v>11.80728361205324</v>
+        <v>9.611769201469869</v>
       </c>
       <c r="E11">
-        <v>10.78025471061052</v>
+        <v>7.600435951505805</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.37373033272957</v>
+        <v>44.85081446621593</v>
       </c>
       <c r="H11">
-        <v>8.721317432940841</v>
+        <v>3.796790388628806</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.688492109207988</v>
       </c>
       <c r="J11">
-        <v>4.966464060588188</v>
+        <v>13.97376296426607</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.52173697462742</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4.72419863720202</v>
       </c>
       <c r="M11">
-        <v>19.80445266051628</v>
+        <v>15.28561238083867</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.215293095693802</v>
       </c>
       <c r="O11">
-        <v>15.20611747004873</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>14.53187049242225</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.94547260581617</v>
+        <v>18.67562628556905</v>
       </c>
       <c r="C12">
-        <v>18.21587145888254</v>
+        <v>8.977983337237188</v>
       </c>
       <c r="D12">
-        <v>11.90287612375776</v>
+        <v>9.228613269372103</v>
       </c>
       <c r="E12">
-        <v>10.83363065113431</v>
+        <v>7.08871868910598</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.59779935454232</v>
+        <v>43.00571845984841</v>
       </c>
       <c r="H12">
-        <v>8.721367642611362</v>
+        <v>4.908654933642129</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.686330905896942</v>
       </c>
       <c r="J12">
-        <v>4.953233710913636</v>
+        <v>13.58668505532306</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.75874422572546</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>4.793745274054444</v>
       </c>
       <c r="M12">
-        <v>20.05540528746619</v>
+        <v>15.20047443982705</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.656354217658882</v>
       </c>
       <c r="O12">
-        <v>15.25914851487303</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>14.30078190719298</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.87365664162606</v>
+        <v>18.2224439182909</v>
       </c>
       <c r="C13">
-        <v>18.17038543504538</v>
+        <v>9.002097996370697</v>
       </c>
       <c r="D13">
-        <v>11.88228324117266</v>
+        <v>8.781879456334424</v>
       </c>
       <c r="E13">
-        <v>10.82208450925478</v>
+        <v>6.638488800475879</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>26.54928395261112</v>
+        <v>40.96219648020379</v>
       </c>
       <c r="H13">
-        <v>8.721269083203808</v>
+        <v>6.186832573102334</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.740125813668745</v>
       </c>
       <c r="J13">
-        <v>4.956068313272095</v>
+        <v>13.18899285918152</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.98505955554761</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>4.881478142807966</v>
       </c>
       <c r="M13">
-        <v>20.0015845782203</v>
+        <v>14.92117891600991</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.087159405210721</v>
       </c>
       <c r="O13">
-        <v>15.24754213001169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>14.15003117266963</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.63826308233881</v>
+        <v>17.78390433472789</v>
       </c>
       <c r="C14">
-        <v>18.0213302365451</v>
+        <v>8.960011435843551</v>
       </c>
       <c r="D14">
-        <v>11.81514560053758</v>
+        <v>8.437203931126582</v>
       </c>
       <c r="E14">
-        <v>10.78462315908946</v>
+        <v>6.370802695437513</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.39204826243734</v>
+        <v>39.41906028535407</v>
       </c>
       <c r="H14">
-        <v>8.721282217468836</v>
+        <v>7.132761632876237</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.805439018435048</v>
       </c>
       <c r="J14">
-        <v>4.965368945963769</v>
+        <v>12.90378819356759</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.43496471538169</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.956321837923114</v>
       </c>
       <c r="M14">
-        <v>19.825200828117</v>
+        <v>14.6328204355216</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.688884833789811</v>
       </c>
       <c r="O14">
-        <v>15.21039717068647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>14.08306640988105</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.49316464534748</v>
+        <v>17.61779019578971</v>
       </c>
       <c r="C15">
-        <v>17.92947946247745</v>
+        <v>8.925250560100158</v>
       </c>
       <c r="D15">
-        <v>11.77403822023033</v>
+        <v>8.339176357313036</v>
       </c>
       <c r="E15">
-        <v>10.76182522507758</v>
+        <v>6.309437440878988</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.29649322650218</v>
+        <v>38.98227944199687</v>
       </c>
       <c r="H15">
-        <v>8.721544925580476</v>
+        <v>7.359961609903973</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.837612413142281</v>
       </c>
       <c r="J15">
-        <v>4.97110893830772</v>
+        <v>12.8288196403725</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.29066972304579</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>4.970973829570788</v>
       </c>
       <c r="M15">
-        <v>19.71649638521242</v>
+        <v>14.51883988175805</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.589294782627335</v>
       </c>
       <c r="O15">
-        <v>15.18818405350622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>14.07958009590281</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.64760118919486</v>
+        <v>17.12062037374998</v>
       </c>
       <c r="C16">
-        <v>17.39467081824871</v>
+        <v>8.635229512288474</v>
       </c>
       <c r="D16">
-        <v>11.53875515579274</v>
+        <v>8.227154125256476</v>
       </c>
       <c r="E16">
-        <v>10.63344410806452</v>
+        <v>6.278064388219875</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>25.76052134885309</v>
+        <v>38.64845117285793</v>
       </c>
       <c r="H16">
-        <v>8.726854501633131</v>
+        <v>7.220342740405118</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.965466640409352</v>
       </c>
       <c r="J16">
-        <v>5.004653496668774</v>
+        <v>12.81924953609692</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.27840135971899</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4.897177105435335</v>
       </c>
       <c r="M16">
-        <v>19.08331748916132</v>
+        <v>14.12648763266119</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.553814657390844</v>
       </c>
       <c r="O16">
-        <v>15.06901800611342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>14.19958229693187</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.11625451490234</v>
+        <v>16.97642471807871</v>
       </c>
       <c r="C17">
-        <v>17.05902857674623</v>
+        <v>8.431807166243715</v>
       </c>
       <c r="D17">
-        <v>11.39471436997708</v>
+        <v>8.328673251318909</v>
       </c>
       <c r="E17">
-        <v>10.55669939481325</v>
+        <v>6.386360272020875</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>25.44210667504833</v>
+        <v>39.22685656627299</v>
       </c>
       <c r="H17">
-        <v>8.733399332560703</v>
+        <v>6.591488303404867</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.029692589749036</v>
       </c>
       <c r="J17">
-        <v>5.025803109959167</v>
+        <v>12.96381371427439</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.56053265419033</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>4.795500235919574</v>
       </c>
       <c r="M17">
-        <v>18.6856882491802</v>
+        <v>13.98087805143278</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.738097651036647</v>
       </c>
       <c r="O17">
-        <v>15.00301387961477</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>14.32533222457563</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.80597182891341</v>
+        <v>17.13835527644608</v>
       </c>
       <c r="C18">
-        <v>16.86319490845601</v>
+        <v>8.269787391469666</v>
       </c>
       <c r="D18">
-        <v>11.31199311850045</v>
+        <v>8.627672755242875</v>
       </c>
       <c r="E18">
-        <v>10.51329449312178</v>
+        <v>6.684646260854042</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.26278738474419</v>
+        <v>40.70200623171453</v>
       </c>
       <c r="H18">
-        <v>8.738329957923806</v>
+        <v>5.528316914029012</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.035285751618587</v>
       </c>
       <c r="J18">
-        <v>5.038173999614402</v>
+        <v>13.267094781359</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.15361392677775</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4.683168818103916</v>
       </c>
       <c r="M18">
-        <v>18.45358055505955</v>
+        <v>14.03806806949122</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.146193020940419</v>
       </c>
       <c r="O18">
-        <v>14.96759723458886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>14.48655000953926</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.70011143353134</v>
+        <v>17.50023230170587</v>
       </c>
       <c r="C19">
-        <v>16.79641098150571</v>
+        <v>8.184763310471375</v>
       </c>
       <c r="D19">
-        <v>11.28400876134002</v>
+        <v>9.057992400201421</v>
       </c>
       <c r="E19">
-        <v>10.49872455346419</v>
+        <v>7.178788147442821</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.20273031927593</v>
+        <v>42.68358002946723</v>
       </c>
       <c r="H19">
-        <v>8.740195741637001</v>
+        <v>4.357634885752113</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.006657279028202</v>
       </c>
       <c r="J19">
-        <v>5.042397650116282</v>
+        <v>13.658624163187</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.91963644087109</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>4.610089274588262</v>
       </c>
       <c r="M19">
-        <v>18.37440648004315</v>
+        <v>14.24257127146489</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.724641721517687</v>
       </c>
       <c r="O19">
-        <v>14.95603719746025</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>14.67348280259871</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.17329958130944</v>
+        <v>18.44187887263353</v>
       </c>
       <c r="C20">
-        <v>17.09504601184588</v>
+        <v>8.271438812217347</v>
       </c>
       <c r="D20">
-        <v>11.41003501218578</v>
+        <v>9.833393083185909</v>
       </c>
       <c r="E20">
-        <v>10.56479269112193</v>
+        <v>8.146152897020432</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.47560678533142</v>
+        <v>46.14757747771522</v>
       </c>
       <c r="H20">
-        <v>8.732580986550827</v>
+        <v>3.26885889580304</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.854329300903061</v>
       </c>
       <c r="J20">
-        <v>5.023530277151172</v>
+        <v>14.31550596453774</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.21093184443374</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>4.644397898211312</v>
       </c>
       <c r="M20">
-        <v>18.72836813338554</v>
+        <v>14.85688471819302</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.723725826020408</v>
       </c>
       <c r="O20">
-        <v>15.00977507897799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>14.93387256606711</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.70759399822802</v>
+        <v>19.51568361531432</v>
       </c>
       <c r="C21">
-        <v>18.06522597153202</v>
+        <v>8.789774163089801</v>
       </c>
       <c r="D21">
-        <v>11.8348622250461</v>
+        <v>10.25670635061328</v>
       </c>
       <c r="E21">
-        <v>10.79559555825623</v>
+        <v>8.478054036814896</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.43807462589433</v>
+        <v>47.78578499380418</v>
       </c>
       <c r="H21">
-        <v>8.721225049450011</v>
+        <v>2.932659216504139</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.602807955700196</v>
       </c>
       <c r="J21">
-        <v>4.96262812239133</v>
+        <v>14.55787842363539</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.67027075064192</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>4.749105268046192</v>
       </c>
       <c r="M21">
-        <v>19.87714731598775</v>
+        <v>15.67650037642385</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.097391849032958</v>
       </c>
       <c r="O21">
-        <v>15.22119484573768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>14.81886982545685</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.66940025129247</v>
+        <v>20.17902584727255</v>
       </c>
       <c r="C22">
-        <v>18.67465552664394</v>
+        <v>9.104959655429054</v>
       </c>
       <c r="D22">
-        <v>12.1132897987602</v>
+        <v>10.49885842919359</v>
       </c>
       <c r="E22">
-        <v>10.95306458465772</v>
+        <v>8.648471271669493</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.1009800369029</v>
+        <v>48.7685396234136</v>
       </c>
       <c r="H22">
-        <v>8.725087726300858</v>
+        <v>2.72875877544121</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.435084777516541</v>
       </c>
       <c r="J22">
-        <v>4.924743289630813</v>
+        <v>14.7027537412862</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.94461920748224</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>4.813942351436619</v>
       </c>
       <c r="M22">
-        <v>20.59814576550945</v>
+        <v>16.18200094043112</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.290672130988039</v>
       </c>
       <c r="O22">
-        <v>15.38334054754009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>14.73707814749529</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.15978205596675</v>
+        <v>19.8445637028548</v>
       </c>
       <c r="C23">
-        <v>18.35163805078715</v>
+        <v>8.921411501526348</v>
       </c>
       <c r="D23">
-        <v>11.96463172520061</v>
+        <v>10.37240463861895</v>
       </c>
       <c r="E23">
-        <v>10.86841084494894</v>
+        <v>8.561578466499906</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.74408523069124</v>
+        <v>48.3098479640631</v>
       </c>
       <c r="H23">
-        <v>8.721949443345618</v>
+        <v>2.835736308335622</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.513735930285656</v>
       </c>
       <c r="J23">
-        <v>4.944783325354884</v>
+        <v>14.63860809205345</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.82813026674626</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>4.78012789059452</v>
       </c>
       <c r="M23">
-        <v>20.21603654600124</v>
+        <v>15.91882349307553</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.185558060139766</v>
       </c>
       <c r="O23">
-        <v>15.29454734709352</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>14.78887765633076</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.14752447803485</v>
+        <v>18.49803573095466</v>
       </c>
       <c r="C24">
-        <v>17.07877146524776</v>
+        <v>8.230593857420395</v>
       </c>
       <c r="D24">
-        <v>11.40310826620579</v>
+        <v>9.879551456477659</v>
       </c>
       <c r="E24">
-        <v>10.56113148036609</v>
+        <v>8.218519374892725</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.4604497295989</v>
+        <v>46.45299918645355</v>
       </c>
       <c r="H24">
-        <v>8.732947332883317</v>
+        <v>3.251161868396993</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.835967222629645</v>
       </c>
       <c r="J24">
-        <v>5.024557166349855</v>
+        <v>14.37815244582388</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.34099489339867</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>4.648765317294953</v>
       </c>
       <c r="M24">
-        <v>18.70908348151327</v>
+        <v>14.87868040086891</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.782987240465761</v>
       </c>
       <c r="O24">
-        <v>15.00671047499867</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>14.97338488970693</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.79826828380558</v>
+        <v>16.93499085138061</v>
       </c>
       <c r="C25">
-        <v>15.59947180930677</v>
+        <v>7.438134455460194</v>
       </c>
       <c r="D25">
-        <v>10.80257373063617</v>
+        <v>9.328032010042493</v>
       </c>
       <c r="E25">
-        <v>10.25779591780885</v>
+        <v>7.831935483514818</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.22198832447949</v>
+        <v>44.42535018703359</v>
       </c>
       <c r="H25">
-        <v>8.78889761120662</v>
+        <v>3.717121218668678</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.199423774610597</v>
       </c>
       <c r="J25">
-        <v>5.118454421865647</v>
+        <v>14.10636349955795</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.82245742728066</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>4.502003474400105</v>
       </c>
       <c r="M25">
-        <v>17.06904505736954</v>
+        <v>13.68299349589052</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.332451610719172</v>
       </c>
       <c r="O25">
-        <v>14.79271846969454</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>15.17634014791013</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_40/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.74120178110267</v>
+        <v>14.91433413655863</v>
       </c>
       <c r="C2">
-        <v>6.762948513701502</v>
+        <v>7.241944309920669</v>
       </c>
       <c r="D2">
-        <v>8.913487521413389</v>
+        <v>8.847154097917114</v>
       </c>
       <c r="E2">
-        <v>7.543801421207847</v>
+        <v>7.450002591299311</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>43.09371204037104</v>
+        <v>40.00725159123161</v>
       </c>
       <c r="H2">
-        <v>4.072630579408949</v>
+        <v>3.832087154953236</v>
       </c>
       <c r="I2">
-        <v>4.458081790519469</v>
+        <v>4.175665925512494</v>
       </c>
       <c r="J2">
-        <v>13.94844141389264</v>
+        <v>13.21279561337293</v>
       </c>
       <c r="K2">
-        <v>22.52458358259287</v>
+        <v>20.89765546142346</v>
       </c>
       <c r="L2">
-        <v>4.391079768572284</v>
+        <v>16.1381349258236</v>
       </c>
       <c r="M2">
-        <v>12.75613149594137</v>
+        <v>14.85047912003076</v>
       </c>
       <c r="N2">
-        <v>7.981955094892745</v>
+        <v>4.385928144928332</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.50705117854003</v>
       </c>
       <c r="P2">
-        <v>15.3501108929642</v>
+        <v>8.226948856535387</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>14.7993834931062</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.8486543657127</v>
+        <v>14.07069448113664</v>
       </c>
       <c r="C3">
-        <v>6.304839084886911</v>
+        <v>6.708537560247272</v>
       </c>
       <c r="D3">
-        <v>8.621148020488329</v>
+        <v>8.567210179437394</v>
       </c>
       <c r="E3">
-        <v>7.334935246416943</v>
+        <v>7.263900679474531</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>42.08798928523269</v>
+        <v>39.305716568347</v>
       </c>
       <c r="H3">
-        <v>4.326628047947708</v>
+        <v>4.063747891306432</v>
       </c>
       <c r="I3">
-        <v>4.655224525399086</v>
+        <v>4.347472950483957</v>
       </c>
       <c r="J3">
-        <v>13.82683373098954</v>
+        <v>13.08468515762021</v>
       </c>
       <c r="K3">
-        <v>22.28299486942406</v>
+        <v>20.75488950221091</v>
       </c>
       <c r="L3">
-        <v>4.311677355688872</v>
+        <v>16.12579639918404</v>
       </c>
       <c r="M3">
-        <v>12.08435830968889</v>
+        <v>14.67763997635707</v>
       </c>
       <c r="N3">
-        <v>7.741099267077685</v>
+        <v>4.312398038434625</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.84283767092964</v>
       </c>
       <c r="P3">
-        <v>15.45828687746803</v>
+        <v>7.985812018151418</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>14.92728108259322</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.27269536866803</v>
+        <v>13.52438222368186</v>
       </c>
       <c r="C4">
-        <v>6.011075197816727</v>
+        <v>6.365406040818942</v>
       </c>
       <c r="D4">
-        <v>8.438200408665809</v>
+        <v>8.392175513443055</v>
       </c>
       <c r="E4">
-        <v>7.202732745585378</v>
+        <v>7.146167585412392</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.46611498110851</v>
+        <v>38.87671202666829</v>
       </c>
       <c r="H4">
-        <v>4.488160889792453</v>
+        <v>4.211205109828032</v>
       </c>
       <c r="I4">
-        <v>4.781129918520342</v>
+        <v>4.457541766903429</v>
       </c>
       <c r="J4">
-        <v>13.75394532406901</v>
+        <v>13.00523687739307</v>
       </c>
       <c r="K4">
-        <v>22.13539452444405</v>
+        <v>20.6673760035552</v>
       </c>
       <c r="L4">
-        <v>4.261260666240927</v>
+        <v>16.11383484093379</v>
       </c>
       <c r="M4">
-        <v>11.65486983467207</v>
+        <v>14.58667182838675</v>
       </c>
       <c r="N4">
-        <v>7.590330414243864</v>
+        <v>4.265696579849532</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.41701897889449</v>
       </c>
       <c r="P4">
-        <v>15.52544481346126</v>
+        <v>7.835203712571626</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>15.00650699956969</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.02524978927517</v>
+        <v>13.28902370676803</v>
       </c>
       <c r="C5">
-        <v>5.894198291367579</v>
+        <v>6.227825884805537</v>
       </c>
       <c r="D5">
-        <v>8.362154511389463</v>
+        <v>8.319463773991648</v>
       </c>
       <c r="E5">
-        <v>7.146773494812697</v>
+        <v>7.096301833717327</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>41.19254357707847</v>
+        <v>38.68438074192967</v>
       </c>
       <c r="H5">
-        <v>4.55587338911443</v>
+        <v>4.273052175659982</v>
       </c>
       <c r="I5">
-        <v>4.836054486841639</v>
+        <v>4.506294163933487</v>
       </c>
       <c r="J5">
-        <v>13.72101408597064</v>
+        <v>12.9690549453967</v>
       </c>
       <c r="K5">
-        <v>22.06712964323435</v>
+        <v>20.62403220207799</v>
       </c>
       <c r="L5">
-        <v>4.240069732776982</v>
+        <v>16.10091135155452</v>
       </c>
       <c r="M5">
-        <v>11.47410625672079</v>
+        <v>14.54873012919123</v>
       </c>
       <c r="N5">
-        <v>7.528913012488288</v>
+        <v>4.246079995717571</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.23752912816236</v>
       </c>
       <c r="P5">
-        <v>15.55073689825518</v>
+        <v>7.773906638974825</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>15.03709456393839</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.97656370286757</v>
+        <v>13.2425173256647</v>
       </c>
       <c r="C6">
-        <v>5.881929515381346</v>
+        <v>6.212320538857276</v>
       </c>
       <c r="D6">
-        <v>8.348604459374744</v>
+        <v>8.306516526411114</v>
       </c>
       <c r="E6">
-        <v>7.136051414617387</v>
+        <v>7.086694107520475</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>41.12345824714873</v>
+        <v>38.63041549903122</v>
       </c>
       <c r="H6">
-        <v>4.567766547069292</v>
+        <v>4.28392267608064</v>
       </c>
       <c r="I6">
-        <v>4.848272489862359</v>
+        <v>4.517952336781246</v>
       </c>
       <c r="J6">
-        <v>13.71107199395305</v>
+        <v>12.95860727546411</v>
       </c>
       <c r="K6">
-        <v>22.04562741427148</v>
+        <v>20.60740190581019</v>
       </c>
       <c r="L6">
-        <v>4.236257522782034</v>
+        <v>16.09022823300143</v>
       </c>
       <c r="M6">
-        <v>11.44184181383936</v>
+        <v>14.53683760938933</v>
       </c>
       <c r="N6">
-        <v>7.519516036549208</v>
+        <v>4.242569892073853</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.20550911821614</v>
       </c>
       <c r="P6">
-        <v>15.55218218696404</v>
+        <v>7.764493914912974</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>15.03988926568036</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.25013878184654</v>
+        <v>13.49710463093743</v>
       </c>
       <c r="C7">
-        <v>6.029018482782343</v>
+        <v>6.371985430245506</v>
       </c>
       <c r="D7">
-        <v>8.434807569070877</v>
+        <v>8.389856584827015</v>
       </c>
       <c r="E7">
-        <v>7.198274788755735</v>
+        <v>7.143138799654425</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.3984643036529</v>
+        <v>38.87507121260757</v>
       </c>
       <c r="H7">
-        <v>4.490583856382651</v>
+        <v>4.214227454395671</v>
       </c>
       <c r="I7">
-        <v>4.789883082246723</v>
+        <v>4.468169677569742</v>
       </c>
       <c r="J7">
-        <v>13.74126024509651</v>
+        <v>12.94594873359611</v>
       </c>
       <c r="K7">
-        <v>22.10679473660927</v>
+        <v>20.62904473363589</v>
       </c>
       <c r="L7">
-        <v>4.26025762276114</v>
+        <v>16.08029159172191</v>
       </c>
       <c r="M7">
-        <v>11.64705873882349</v>
+        <v>14.56226375188878</v>
       </c>
       <c r="N7">
-        <v>7.591779770869205</v>
+        <v>4.264653659754465</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.40204507876412</v>
       </c>
       <c r="P7">
-        <v>15.5182800482368</v>
+        <v>7.834840735873922</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.99744447452486</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.41553058238561</v>
+        <v>14.58957969351668</v>
       </c>
       <c r="C8">
-        <v>6.631264188662914</v>
+        <v>7.049962615800936</v>
       </c>
       <c r="D8">
-        <v>8.810455330046301</v>
+        <v>8.751435532299714</v>
       </c>
       <c r="E8">
-        <v>7.467908773698828</v>
+        <v>7.385794286505441</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>42.66590516942579</v>
+        <v>39.88686249411823</v>
       </c>
       <c r="H8">
-        <v>4.160978463428902</v>
+        <v>3.915115627638579</v>
       </c>
       <c r="I8">
-        <v>4.535238270521018</v>
+        <v>4.247972281844084</v>
       </c>
       <c r="J8">
-        <v>13.89021251528108</v>
+        <v>13.00109295800058</v>
       </c>
       <c r="K8">
-        <v>22.4051443331556</v>
+        <v>20.7757755719063</v>
       </c>
       <c r="L8">
-        <v>4.363139320067381</v>
+        <v>16.07353535395076</v>
       </c>
       <c r="M8">
-        <v>12.52139784676728</v>
+        <v>14.73862616496358</v>
       </c>
       <c r="N8">
-        <v>7.902469171897297</v>
+        <v>4.359619402229311</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.25249045467422</v>
       </c>
       <c r="P8">
-        <v>15.37754726955315</v>
+        <v>8.141722031721317</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>14.82504991092542</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.5050833041351</v>
+        <v>16.55360830579338</v>
       </c>
       <c r="C9">
-        <v>7.68344537846427</v>
+        <v>8.267961004149717</v>
       </c>
       <c r="D9">
-        <v>9.520066783559614</v>
+        <v>9.432361328640987</v>
       </c>
       <c r="E9">
-        <v>7.970298837924555</v>
+        <v>7.834851922246804</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>45.21626580539173</v>
+        <v>41.75860717604194</v>
       </c>
       <c r="H9">
-        <v>3.555258003193775</v>
+        <v>3.363845295053458</v>
       </c>
       <c r="I9">
-        <v>4.060494092247047</v>
+        <v>3.834121696898348</v>
       </c>
       <c r="J9">
-        <v>14.21765949366023</v>
+        <v>13.29266859462491</v>
       </c>
       <c r="K9">
-        <v>23.04343612523227</v>
+        <v>21.15360178813764</v>
       </c>
       <c r="L9">
-        <v>4.553284946162959</v>
+        <v>16.10197448029463</v>
       </c>
       <c r="M9">
-        <v>14.10372164805223</v>
+        <v>15.25984578703055</v>
       </c>
       <c r="N9">
-        <v>8.482500766107608</v>
+        <v>4.535466135877146</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.80763139424476</v>
       </c>
       <c r="P9">
-        <v>15.12020167450067</v>
+        <v>8.723165196165876</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>14.51435724338467</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.83126350534939</v>
+        <v>17.77263933153656</v>
       </c>
       <c r="C10">
-        <v>8.412593415410901</v>
+        <v>9.045921691335517</v>
       </c>
       <c r="D10">
-        <v>9.955354381601593</v>
+        <v>9.854254517471043</v>
       </c>
       <c r="E10">
-        <v>8.226350913516553</v>
+        <v>8.064195376858864</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>46.73433116365071</v>
+        <v>43.18514427549322</v>
       </c>
       <c r="H10">
-        <v>3.163310818098362</v>
+        <v>3.01333500059117</v>
       </c>
       <c r="I10">
-        <v>3.746400189901784</v>
+        <v>3.56674332266013</v>
       </c>
       <c r="J10">
-        <v>14.40315500536748</v>
+        <v>13.19561778605025</v>
       </c>
       <c r="K10">
-        <v>23.3869943545355</v>
+        <v>21.26044614883523</v>
       </c>
       <c r="L10">
-        <v>4.679243586421652</v>
+        <v>15.97138987517435</v>
       </c>
       <c r="M10">
-        <v>15.13751106040242</v>
+        <v>15.57761857999199</v>
       </c>
       <c r="N10">
-        <v>8.804937771392993</v>
+        <v>4.652830724878867</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.78643643527511</v>
       </c>
       <c r="P10">
-        <v>14.89908240513452</v>
+        <v>9.03810901728141</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>14.24782748310042</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.88463491366447</v>
+        <v>17.81047872637354</v>
       </c>
       <c r="C11">
-        <v>8.81193220718446</v>
+        <v>9.314074158377911</v>
       </c>
       <c r="D11">
-        <v>9.611769201469869</v>
+        <v>9.524190753453425</v>
       </c>
       <c r="E11">
-        <v>7.600435951505805</v>
+        <v>7.467226335840698</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.85081446621593</v>
+        <v>42.14689892060648</v>
       </c>
       <c r="H11">
-        <v>3.796790388628806</v>
+        <v>3.685334064792464</v>
       </c>
       <c r="I11">
-        <v>3.688492109207988</v>
+        <v>3.527134873264833</v>
       </c>
       <c r="J11">
-        <v>13.97376296426607</v>
+        <v>12.3170828292764</v>
       </c>
       <c r="K11">
-        <v>22.52173697462742</v>
+        <v>20.35629935740667</v>
       </c>
       <c r="L11">
-        <v>4.72419863720202</v>
+        <v>15.19283045610834</v>
       </c>
       <c r="M11">
-        <v>15.28561238083867</v>
+        <v>15.00254736102536</v>
       </c>
       <c r="N11">
-        <v>8.215293095693802</v>
+        <v>4.709028295637429</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.87239956447154</v>
       </c>
       <c r="P11">
-        <v>14.53187049242225</v>
+        <v>8.421377687186045</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.93125485824968</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.67562628556905</v>
+        <v>17.62590267816951</v>
       </c>
       <c r="C12">
-        <v>8.977983337237188</v>
+        <v>9.388244382075603</v>
       </c>
       <c r="D12">
-        <v>9.228613269372103</v>
+        <v>9.151970694812533</v>
       </c>
       <c r="E12">
-        <v>7.08871868910598</v>
+        <v>6.98070121727476</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>43.00571845984841</v>
+        <v>40.81979554770979</v>
       </c>
       <c r="H12">
-        <v>4.908654933642129</v>
+        <v>4.823297799455582</v>
       </c>
       <c r="I12">
-        <v>3.686330905896942</v>
+        <v>3.526668435358967</v>
       </c>
       <c r="J12">
-        <v>13.58668505532306</v>
+        <v>11.78918025064362</v>
       </c>
       <c r="K12">
-        <v>21.75874422572546</v>
+        <v>19.65383570103752</v>
       </c>
       <c r="L12">
-        <v>4.793745274054444</v>
+        <v>14.63761573987633</v>
       </c>
       <c r="M12">
-        <v>15.20047443982705</v>
+        <v>14.50085209190426</v>
       </c>
       <c r="N12">
-        <v>7.656354217658882</v>
+        <v>4.787344154692975</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.76711710953024</v>
       </c>
       <c r="P12">
-        <v>14.30078190719298</v>
+        <v>7.846796201523053</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>13.76366212126275</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.2224439182909</v>
+        <v>17.24182973249202</v>
       </c>
       <c r="C13">
-        <v>9.002097996370697</v>
+        <v>9.364461520922632</v>
       </c>
       <c r="D13">
-        <v>8.781879456334424</v>
+        <v>8.713129743198133</v>
       </c>
       <c r="E13">
-        <v>6.638488800475879</v>
+        <v>6.555296516317526</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>40.96219648020379</v>
+        <v>38.94174395957533</v>
       </c>
       <c r="H13">
-        <v>6.186832573102334</v>
+        <v>6.113111639116179</v>
       </c>
       <c r="I13">
-        <v>3.740125813668745</v>
+        <v>3.570603701340143</v>
       </c>
       <c r="J13">
-        <v>13.18899285918152</v>
+        <v>11.54160291314128</v>
       </c>
       <c r="K13">
-        <v>20.98505955554761</v>
+        <v>19.04666549419698</v>
       </c>
       <c r="L13">
-        <v>4.881478142807966</v>
+        <v>14.19537524403277</v>
       </c>
       <c r="M13">
-        <v>14.92117891600991</v>
+        <v>14.01927598878039</v>
       </c>
       <c r="N13">
-        <v>7.087159405210721</v>
+        <v>4.88481409923782</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.51355320718715</v>
       </c>
       <c r="P13">
-        <v>14.15003117266963</v>
+        <v>7.272606319712113</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>13.68818041036867</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.78390433472789</v>
+        <v>16.87235409713579</v>
       </c>
       <c r="C14">
-        <v>8.960011435843551</v>
+        <v>9.307200762935233</v>
       </c>
       <c r="D14">
-        <v>8.437203931126582</v>
+        <v>8.372893208961028</v>
       </c>
       <c r="E14">
-        <v>6.370802695437513</v>
+        <v>6.306793726978004</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>39.41906028535407</v>
+        <v>37.37035381354568</v>
       </c>
       <c r="H14">
-        <v>7.132761632876237</v>
+        <v>7.062482136384607</v>
       </c>
       <c r="I14">
-        <v>3.805439018435048</v>
+        <v>3.624393428013875</v>
       </c>
       <c r="J14">
-        <v>12.90378819356759</v>
+        <v>11.4742814925982</v>
       </c>
       <c r="K14">
-        <v>20.43496471538169</v>
+        <v>18.65665346265604</v>
       </c>
       <c r="L14">
-        <v>4.956321837923114</v>
+        <v>13.92631750256907</v>
       </c>
       <c r="M14">
-        <v>14.6328204355216</v>
+        <v>13.68877379029725</v>
       </c>
       <c r="N14">
-        <v>6.688884833789811</v>
+        <v>4.967359168310971</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.2635891353982</v>
       </c>
       <c r="P14">
-        <v>14.08306640988105</v>
+        <v>6.875081921308915</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>13.67428425032995</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.61779019578971</v>
+        <v>16.73206816848865</v>
       </c>
       <c r="C15">
-        <v>8.925250560100158</v>
+        <v>9.276679145253526</v>
       </c>
       <c r="D15">
-        <v>8.339176357313036</v>
+        <v>8.275596060996241</v>
       </c>
       <c r="E15">
-        <v>6.309437440878988</v>
+        <v>6.251048104075106</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.98227944199687</v>
+        <v>36.86880971744078</v>
       </c>
       <c r="H15">
-        <v>7.359961609903973</v>
+        <v>7.288979680037444</v>
       </c>
       <c r="I15">
-        <v>3.837612413142281</v>
+        <v>3.651969668331463</v>
       </c>
       <c r="J15">
-        <v>12.8288196403725</v>
+        <v>11.49996104922169</v>
       </c>
       <c r="K15">
-        <v>20.29066972304579</v>
+        <v>18.57025837990427</v>
       </c>
       <c r="L15">
-        <v>4.970973829570788</v>
+        <v>13.87286481388309</v>
       </c>
       <c r="M15">
-        <v>14.51883988175805</v>
+        <v>13.60647742450073</v>
       </c>
       <c r="N15">
-        <v>6.589294782627335</v>
+        <v>4.984657228845583</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.16772239276881</v>
       </c>
       <c r="P15">
-        <v>14.07958009590281</v>
+        <v>6.77743498331161</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>13.68459673132864</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.12062037374998</v>
+        <v>16.30855819216103</v>
       </c>
       <c r="C16">
-        <v>8.635229512288474</v>
+        <v>9.050523263207017</v>
       </c>
       <c r="D16">
-        <v>8.227154125256476</v>
+        <v>8.161078205636032</v>
       </c>
       <c r="E16">
-        <v>6.278064388219875</v>
+        <v>6.226001174087067</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.64845117285793</v>
+        <v>36.06788861407754</v>
       </c>
       <c r="H16">
-        <v>7.220342740405118</v>
+        <v>7.134491104571442</v>
       </c>
       <c r="I16">
-        <v>3.965466640409352</v>
+        <v>3.757916251999655</v>
       </c>
       <c r="J16">
-        <v>12.81924953609692</v>
+        <v>11.8933083765295</v>
       </c>
       <c r="K16">
-        <v>20.27840135971899</v>
+        <v>18.71168601637762</v>
       </c>
       <c r="L16">
-        <v>4.897177105435335</v>
+        <v>14.03483825391561</v>
       </c>
       <c r="M16">
-        <v>14.12648763266119</v>
+        <v>13.63620257850366</v>
       </c>
       <c r="N16">
-        <v>6.553814657390844</v>
+        <v>4.917713574965235</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.84733832857133</v>
       </c>
       <c r="P16">
-        <v>14.19958229693187</v>
+        <v>6.757468634925131</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.81179519092668</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.97642471807871</v>
+        <v>16.17650634142451</v>
       </c>
       <c r="C17">
-        <v>8.431807166243715</v>
+        <v>8.891789810944221</v>
       </c>
       <c r="D17">
-        <v>8.328673251318909</v>
+        <v>8.259359181069625</v>
       </c>
       <c r="E17">
-        <v>6.386360272020875</v>
+        <v>6.326862278934983</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>39.22685656627299</v>
+        <v>36.37990387400997</v>
       </c>
       <c r="H17">
-        <v>6.591488303404867</v>
+        <v>6.489945124695384</v>
       </c>
       <c r="I17">
-        <v>4.029692589749036</v>
+        <v>3.812277987456195</v>
       </c>
       <c r="J17">
-        <v>12.96381371427439</v>
+        <v>12.1935159785241</v>
       </c>
       <c r="K17">
-        <v>20.56053265419033</v>
+        <v>19.01573529134776</v>
       </c>
       <c r="L17">
-        <v>4.795500235919574</v>
+        <v>14.30128516325789</v>
       </c>
       <c r="M17">
-        <v>13.98087805143278</v>
+        <v>13.82106276531407</v>
       </c>
       <c r="N17">
-        <v>6.738097651036647</v>
+        <v>4.815740451584207</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.72710046226286</v>
       </c>
       <c r="P17">
-        <v>14.32533222457563</v>
+        <v>6.951949536777994</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.91902684501505</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.13835527644608</v>
+        <v>16.30779950756283</v>
       </c>
       <c r="C18">
-        <v>8.269787391469666</v>
+        <v>8.780969144536662</v>
       </c>
       <c r="D18">
-        <v>8.627672755242875</v>
+        <v>8.552058543886409</v>
       </c>
       <c r="E18">
-        <v>6.684646260854042</v>
+        <v>6.603766782149679</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.70200623171453</v>
+        <v>37.59518785151963</v>
       </c>
       <c r="H18">
-        <v>5.528316914029012</v>
+        <v>5.405515648975229</v>
       </c>
       <c r="I18">
-        <v>4.035285751618587</v>
+        <v>3.81501476626246</v>
       </c>
       <c r="J18">
-        <v>13.267094781359</v>
+        <v>12.5341784797444</v>
       </c>
       <c r="K18">
-        <v>21.15361392677775</v>
+        <v>19.54121904654671</v>
       </c>
       <c r="L18">
-        <v>4.683168818103916</v>
+        <v>14.7283818546974</v>
       </c>
       <c r="M18">
-        <v>14.03806806949122</v>
+        <v>14.18868064615676</v>
       </c>
       <c r="N18">
-        <v>7.146193020940419</v>
+        <v>4.696805117315382</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.78503961857988</v>
       </c>
       <c r="P18">
-        <v>14.48655000953926</v>
+        <v>7.369455552769947</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>14.03741082830695</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.50023230170587</v>
+        <v>16.61276105765318</v>
       </c>
       <c r="C19">
-        <v>8.184763310471375</v>
+        <v>8.755801649558929</v>
       </c>
       <c r="D19">
-        <v>9.057992400201421</v>
+        <v>8.973531486988842</v>
       </c>
       <c r="E19">
-        <v>7.178788147442821</v>
+        <v>7.068280031376016</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.68358002946723</v>
+        <v>39.29751122682389</v>
       </c>
       <c r="H19">
-        <v>4.357634885752113</v>
+        <v>4.207678631956139</v>
       </c>
       <c r="I19">
-        <v>4.006657279028202</v>
+        <v>3.792410727636141</v>
       </c>
       <c r="J19">
-        <v>13.658624163187</v>
+        <v>12.89856499149956</v>
       </c>
       <c r="K19">
-        <v>21.91963644087109</v>
+        <v>20.18445173498435</v>
       </c>
       <c r="L19">
-        <v>4.610089274588262</v>
+        <v>15.23674681736056</v>
       </c>
       <c r="M19">
-        <v>14.24257127146489</v>
+        <v>14.65826300496049</v>
       </c>
       <c r="N19">
-        <v>7.724641721517687</v>
+        <v>4.6116554200473</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.97642068808852</v>
       </c>
       <c r="P19">
-        <v>14.67348280259871</v>
+        <v>7.956819906294607</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>14.16505864198343</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.44187887263353</v>
+        <v>17.42859013259142</v>
       </c>
       <c r="C20">
-        <v>8.271438812217347</v>
+        <v>8.924742196718759</v>
       </c>
       <c r="D20">
-        <v>9.833393083185909</v>
+        <v>9.733154312041851</v>
       </c>
       <c r="E20">
-        <v>8.146152897020432</v>
+        <v>7.987991399119185</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>46.14757747771522</v>
+        <v>42.42833946134523</v>
       </c>
       <c r="H20">
-        <v>3.26885889580304</v>
+        <v>3.105351049950111</v>
       </c>
       <c r="I20">
-        <v>3.854329300903061</v>
+        <v>3.664833763848138</v>
       </c>
       <c r="J20">
-        <v>14.31550596453774</v>
+        <v>13.34046419552353</v>
       </c>
       <c r="K20">
-        <v>23.21093184443374</v>
+        <v>21.19453982540538</v>
       </c>
       <c r="L20">
-        <v>4.644397898211312</v>
+        <v>15.97697282947676</v>
       </c>
       <c r="M20">
-        <v>14.85688471819302</v>
+        <v>15.4626846896827</v>
       </c>
       <c r="N20">
-        <v>8.723725826020408</v>
+        <v>4.621148752293998</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.54197318866683</v>
       </c>
       <c r="P20">
-        <v>14.93387256606711</v>
+        <v>8.963786945365507</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>14.31029456583093</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.51568361531432</v>
+        <v>18.3295501318922</v>
       </c>
       <c r="C21">
-        <v>8.789774163089801</v>
+        <v>9.329932123593505</v>
       </c>
       <c r="D21">
-        <v>10.25670635061328</v>
+        <v>10.1601250459258</v>
       </c>
       <c r="E21">
-        <v>8.478054036814896</v>
+        <v>8.314935155201884</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>47.78578499380418</v>
+        <v>45.0227868034976</v>
       </c>
       <c r="H21">
-        <v>2.932659216504139</v>
+        <v>2.813129071139609</v>
       </c>
       <c r="I21">
-        <v>3.602807955700196</v>
+        <v>3.460444960088993</v>
       </c>
       <c r="J21">
-        <v>14.55787842363539</v>
+        <v>12.56258259995402</v>
       </c>
       <c r="K21">
-        <v>23.67027075064192</v>
+        <v>21.22933836194941</v>
       </c>
       <c r="L21">
-        <v>4.749105268046192</v>
+        <v>15.84192926376813</v>
       </c>
       <c r="M21">
-        <v>15.67650037642385</v>
+        <v>15.68265896359633</v>
       </c>
       <c r="N21">
-        <v>9.097391849032958</v>
+        <v>4.713926845120941</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.20727617215711</v>
       </c>
       <c r="P21">
-        <v>14.81886982545685</v>
+        <v>9.306353716968822</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>14.09098522584496</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.17902584727255</v>
+        <v>18.88098563674149</v>
       </c>
       <c r="C22">
-        <v>9.104959655429054</v>
+        <v>9.561120353515289</v>
       </c>
       <c r="D22">
-        <v>10.49885842919359</v>
+        <v>10.40668584024566</v>
       </c>
       <c r="E22">
-        <v>8.648471271669493</v>
+        <v>8.486555510979432</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>48.7685396234136</v>
+        <v>46.74184757965499</v>
       </c>
       <c r="H22">
-        <v>2.72875877544121</v>
+        <v>2.637360010243073</v>
       </c>
       <c r="I22">
-        <v>3.435084777516541</v>
+        <v>3.320813674539207</v>
       </c>
       <c r="J22">
-        <v>14.7027537412862</v>
+        <v>12.01648433881685</v>
       </c>
       <c r="K22">
-        <v>23.94461920748224</v>
+        <v>21.2172770443396</v>
       </c>
       <c r="L22">
-        <v>4.813942351436619</v>
+        <v>15.72732768996702</v>
       </c>
       <c r="M22">
-        <v>16.18200094043112</v>
+        <v>15.80673248817104</v>
       </c>
       <c r="N22">
-        <v>9.290672130988039</v>
+        <v>4.772454392165866</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.60790248365007</v>
       </c>
       <c r="P22">
-        <v>14.73707814749529</v>
+        <v>9.477426149074999</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>13.94020110043218</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.8445637028548</v>
+        <v>18.61613365259119</v>
       </c>
       <c r="C23">
-        <v>8.921411501526348</v>
+        <v>9.443327961301149</v>
       </c>
       <c r="D23">
-        <v>10.37240463861895</v>
+        <v>10.27552404386227</v>
       </c>
       <c r="E23">
-        <v>8.561578466499906</v>
+        <v>8.395682017638686</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>48.3098479640631</v>
+        <v>45.73417033502257</v>
       </c>
       <c r="H23">
-        <v>2.835736308335622</v>
+        <v>2.728132979129496</v>
       </c>
       <c r="I23">
-        <v>3.513735930285656</v>
+        <v>3.381437173243745</v>
       </c>
       <c r="J23">
-        <v>14.63860809205345</v>
+        <v>12.41973605491818</v>
       </c>
       <c r="K23">
-        <v>23.82813026674626</v>
+        <v>21.28027905827971</v>
       </c>
       <c r="L23">
-        <v>4.78012789059452</v>
+        <v>15.83030292444034</v>
       </c>
       <c r="M23">
-        <v>15.91882349307553</v>
+        <v>15.78374994440163</v>
       </c>
       <c r="N23">
-        <v>9.185558060139766</v>
+        <v>4.74203735900691</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.41523016818337</v>
       </c>
       <c r="P23">
-        <v>14.78887765633076</v>
+        <v>9.388019957017447</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>14.03356219906353</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.49803573095466</v>
+        <v>17.47902839460692</v>
       </c>
       <c r="C24">
-        <v>8.230593857420395</v>
+        <v>8.889809563324619</v>
       </c>
       <c r="D24">
-        <v>9.879551456477659</v>
+        <v>9.77817824266989</v>
       </c>
       <c r="E24">
-        <v>8.218519374892725</v>
+        <v>8.057281468148975</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>46.45299918645355</v>
+        <v>42.69326220385446</v>
       </c>
       <c r="H24">
-        <v>3.251161868396993</v>
+        <v>3.087954622931179</v>
       </c>
       <c r="I24">
-        <v>3.835967222629645</v>
+        <v>3.643995715203673</v>
       </c>
       <c r="J24">
-        <v>14.37815244582388</v>
+        <v>13.40496643838167</v>
       </c>
       <c r="K24">
-        <v>23.34099489339867</v>
+        <v>21.30994434198564</v>
       </c>
       <c r="L24">
-        <v>4.648765317294953</v>
+        <v>16.06884602227597</v>
       </c>
       <c r="M24">
-        <v>14.87868040086891</v>
+        <v>15.54596705482905</v>
       </c>
       <c r="N24">
-        <v>8.782987240465761</v>
+        <v>4.623730969278701</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.56309859994294</v>
       </c>
       <c r="P24">
-        <v>14.97338488970693</v>
+        <v>9.024330354672735</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>14.34004139055054</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.93499085138061</v>
+        <v>16.02500444747436</v>
       </c>
       <c r="C25">
-        <v>7.438134455460194</v>
+        <v>7.995006110740343</v>
       </c>
       <c r="D25">
-        <v>9.328032010042493</v>
+        <v>9.246795060659098</v>
       </c>
       <c r="E25">
-        <v>7.831935483514818</v>
+        <v>7.709365597597595</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>44.42535018703359</v>
+        <v>41.06816640049702</v>
       </c>
       <c r="H25">
-        <v>3.717121218668678</v>
+        <v>3.510037011662737</v>
       </c>
       <c r="I25">
-        <v>4.199423774610597</v>
+        <v>3.958219965982916</v>
       </c>
       <c r="J25">
-        <v>14.10636349955795</v>
+        <v>13.25807770610505</v>
       </c>
       <c r="K25">
-        <v>22.82245742728066</v>
+        <v>21.02377379943492</v>
       </c>
       <c r="L25">
-        <v>4.502003474400105</v>
+        <v>16.07592753387729</v>
       </c>
       <c r="M25">
-        <v>13.68299349589052</v>
+        <v>15.08715203011983</v>
       </c>
       <c r="N25">
-        <v>8.332451610719172</v>
+        <v>4.488370376822943</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.40423449028332</v>
       </c>
       <c r="P25">
-        <v>15.17634014791013</v>
+        <v>8.574564037345125</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>14.59212714042906</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
